--- a/Code/Results/Cases/Case_1_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_47/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.45347457040131</v>
+        <v>25.45347457040136</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.27329572666798</v>
+        <v>5.273295726668039</v>
       </c>
       <c r="E2">
-        <v>43.56921359322462</v>
+        <v>43.56921359322497</v>
       </c>
       <c r="F2">
-        <v>42.59061159040454</v>
+        <v>42.59061159040475</v>
       </c>
       <c r="G2">
-        <v>33.79746211583344</v>
+        <v>33.79746211583362</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>73.87359722912204</v>
+        <v>73.87359722912251</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.51321421720512</v>
+        <v>23.51321421720509</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.644804122654712</v>
+        <v>4.644804122654652</v>
       </c>
       <c r="E3">
-        <v>40.28917422208257</v>
+        <v>40.28917422208242</v>
       </c>
       <c r="F3">
-        <v>38.28872075891612</v>
+        <v>38.28872075891599</v>
       </c>
       <c r="G3">
-        <v>30.30128499016894</v>
+        <v>30.30128499016882</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>68.16384398666817</v>
+        <v>68.16384398666797</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.28550125219467</v>
+        <v>22.28550125219457</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.271972029213029</v>
+        <v>4.271972029212979</v>
       </c>
       <c r="E4">
-        <v>38.21449835036978</v>
+        <v>38.21449835036972</v>
       </c>
       <c r="F4">
-        <v>35.68805976035336</v>
+        <v>35.68805976035356</v>
       </c>
       <c r="G4">
-        <v>28.18808457892583</v>
+        <v>28.18808457892599</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>64.57116426439653</v>
+        <v>64.57116426439649</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.77475550215858</v>
+        <v>21.77475550215875</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.122208746319296</v>
+        <v>4.122208746319305</v>
       </c>
       <c r="E5">
-        <v>37.35144182973868</v>
+        <v>37.3514418297385</v>
       </c>
       <c r="F5">
-        <v>34.63315286269221</v>
+        <v>34.63315286269241</v>
       </c>
       <c r="G5">
-        <v>27.33078755095183</v>
+        <v>27.330787550952</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>63.08057206803921</v>
+        <v>63.08057206803904</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.6892833897925</v>
+        <v>21.68928338979263</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.097444184977228</v>
+        <v>4.097444184977345</v>
       </c>
       <c r="E6">
-        <v>37.20701001922968</v>
+        <v>37.20701001922986</v>
       </c>
       <c r="F6">
-        <v>34.45815401901038</v>
+        <v>34.45815401901037</v>
       </c>
       <c r="G6">
-        <v>27.18855683758276</v>
+        <v>27.18855683758278</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>62.83133994767149</v>
+        <v>62.83133994767163</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.27865693911612</v>
+        <v>22.2786569391162</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.269944761309631</v>
+        <v>4.269944761309481</v>
       </c>
       <c r="E7">
-        <v>38.20293286928758</v>
+        <v>38.20293286928798</v>
       </c>
       <c r="F7">
-        <v>35.67381908358174</v>
+        <v>35.67381908358163</v>
       </c>
       <c r="G7">
-        <v>28.17651229351385</v>
+        <v>28.17651229351375</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>64.55117452065599</v>
+        <v>64.55117452065635</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.79114277345001</v>
+        <v>24.79114277344994</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.0531087498769</v>
+        <v>5.053108749876764</v>
       </c>
       <c r="E8">
-        <v>42.44925545570675</v>
+        <v>42.44925545570674</v>
       </c>
       <c r="F8">
-        <v>41.09509256952548</v>
+        <v>41.09509256952551</v>
       </c>
       <c r="G8">
-        <v>32.5818338041282</v>
+        <v>32.58183380412822</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>71.91968043112233</v>
+        <v>71.91968043112234</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.51169917891363</v>
+        <v>29.5116991789139</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.766165345353728</v>
+        <v>6.76616534535404</v>
       </c>
       <c r="E9">
-        <v>50.44489150817996</v>
+        <v>50.4448915081807</v>
       </c>
       <c r="F9">
-        <v>52.41683605397759</v>
+        <v>52.41683605397807</v>
       </c>
       <c r="G9">
-        <v>41.79573056489961</v>
+        <v>41.79573056490008</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>85.9835713360028</v>
+        <v>85.98357133600372</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.0446165070156</v>
+        <v>33.04461650701551</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -725,13 +725,13 @@
         <v>8.310066660422253</v>
       </c>
       <c r="E10">
-        <v>56.46861462186548</v>
+        <v>56.46861462186518</v>
       </c>
       <c r="F10">
-        <v>62.05820779658091</v>
+        <v>62.05820779658129</v>
       </c>
       <c r="G10">
-        <v>49.67033542073363</v>
+        <v>49.67033542073386</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>96.79626674566431</v>
+        <v>96.7962667456641</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.76054665893563</v>
+        <v>34.76054665893555</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.165856036057294</v>
+        <v>9.165856036057257</v>
       </c>
       <c r="E11">
-        <v>59.41723652349609</v>
+        <v>59.41723652349534</v>
       </c>
       <c r="F11">
-        <v>67.19996711483513</v>
+        <v>67.19996711483529</v>
       </c>
       <c r="G11">
-        <v>53.88308541752662</v>
+        <v>53.88308541752678</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>102.1811935857038</v>
+        <v>102.181193585703</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.44476827159289</v>
+        <v>35.44476827159298</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.530589925961841</v>
+        <v>9.530589925961893</v>
       </c>
       <c r="E12">
-        <v>60.59882746996227</v>
+        <v>60.59882746996276</v>
       </c>
       <c r="F12">
-        <v>69.35074171687818</v>
+        <v>69.35074171687857</v>
       </c>
       <c r="G12">
-        <v>55.64820591354286</v>
+        <v>55.64820591354317</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>104.3600659842295</v>
+        <v>104.3600659842301</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.29533927664791</v>
+        <v>35.29533927664794</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.449691200881995</v>
+        <v>9.449691200882057</v>
       </c>
       <c r="E13">
-        <v>60.34045461086727</v>
+        <v>60.34045461086731</v>
       </c>
       <c r="F13">
-        <v>68.87573046909201</v>
+        <v>68.8757304690921</v>
       </c>
       <c r="G13">
-        <v>55.25821531661932</v>
+        <v>55.25821531661942</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.81596551640138</v>
+        <v>34.81596551640133</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.194865768684855</v>
+        <v>9.194865768684792</v>
       </c>
       <c r="E14">
-        <v>59.5128034031415</v>
+        <v>59.51280340314148</v>
       </c>
       <c r="F14">
         <v>67.37190122571771</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.52771255486348</v>
+        <v>34.52771255486329</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.044964637362249</v>
+        <v>9.044964637362062</v>
       </c>
       <c r="E15">
-        <v>59.01597612973254</v>
+        <v>59.01597612973213</v>
       </c>
       <c r="F15">
-        <v>66.48183527633122</v>
+        <v>66.48183527633118</v>
       </c>
       <c r="G15">
-        <v>53.29411487723168</v>
+        <v>53.29411487723164</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>101.4441567152643</v>
+        <v>101.4441567152639</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.93589283671041</v>
+        <v>32.93589283671036</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.258433357713651</v>
+        <v>8.258433357713596</v>
       </c>
       <c r="E16">
-        <v>56.28239543265573</v>
+        <v>56.28239543265538</v>
       </c>
       <c r="F16">
-        <v>61.74356238944998</v>
+        <v>61.74356238945011</v>
       </c>
       <c r="G16">
-        <v>49.4128527181215</v>
+        <v>49.41285271812156</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>96.45846020320195</v>
+        <v>96.4584602032016</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.99597050869305</v>
+        <v>31.99597050869294</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.823787093612007</v>
+        <v>7.823787093611889</v>
       </c>
       <c r="E17">
-        <v>54.67509022325291</v>
+        <v>54.67509022325249</v>
       </c>
       <c r="F17">
-        <v>59.07418633706529</v>
+        <v>59.07418633706503</v>
       </c>
       <c r="G17">
-        <v>47.22982943928649</v>
+        <v>47.22982943928626</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>93.55292638867108</v>
+        <v>93.55292638867057</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.46400788383914</v>
+        <v>31.46400788383928</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.586661419846996</v>
+        <v>7.586661419846917</v>
       </c>
       <c r="E18">
-        <v>53.76727066177146</v>
+        <v>53.76727066177172</v>
       </c>
       <c r="F18">
-        <v>57.60193968706366</v>
+        <v>57.6019396870634</v>
       </c>
       <c r="G18">
-        <v>46.02686718993931</v>
+        <v>46.02686718993912</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>91.91948201533128</v>
+        <v>91.91948201533151</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.28504664216243</v>
+        <v>31.28504664216244</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.508259133675099</v>
+        <v>7.508259133674961</v>
       </c>
       <c r="E19">
-        <v>53.46213741701204</v>
+        <v>53.46213741701214</v>
       </c>
       <c r="F19">
-        <v>57.11263035954879</v>
+        <v>57.1126303595484</v>
       </c>
       <c r="G19">
-        <v>45.62721616975937</v>
+        <v>45.62721616975906</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.09504570592544</v>
+        <v>32.09504570592541</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.868640431861697</v>
+        <v>7.868640431861762</v>
       </c>
       <c r="E20">
-        <v>54.84430758956633</v>
+        <v>54.84430758956614</v>
       </c>
       <c r="F20">
-        <v>59.35138777808814</v>
+        <v>59.3513877780881</v>
       </c>
       <c r="G20">
-        <v>47.45641078362069</v>
+        <v>47.45641078362068</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>93.85799152922841</v>
+        <v>93.85799152922824</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1140,16 +1140,16 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.268357083272821</v>
+        <v>9.268357083272836</v>
       </c>
       <c r="E21">
-        <v>59.75366660127474</v>
+        <v>59.75366660127454</v>
       </c>
       <c r="F21">
-        <v>67.80679139843843</v>
+        <v>67.80679139843892</v>
       </c>
       <c r="G21">
-        <v>54.38092060450943</v>
+        <v>54.3809206045098</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>102.8002575292565</v>
+        <v>102.8002575292564</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.05822409481219</v>
+        <v>37.05822409481202</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.4528793635202</v>
+        <v>10.45287936352021</v>
       </c>
       <c r="E22">
-        <v>63.40169852648351</v>
+        <v>63.40169852648279</v>
       </c>
       <c r="F22">
-        <v>74.68657251780198</v>
+        <v>74.68657251780134</v>
       </c>
       <c r="G22">
-        <v>60.0351186939814</v>
+        <v>60.03511869398091</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>109.5855156438614</v>
+        <v>109.5855156438605</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.90061327501684</v>
+        <v>35.90061327501694</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.781874828601772</v>
+        <v>9.781874828601767</v>
       </c>
       <c r="E23">
-        <v>61.38820090607747</v>
+        <v>61.38820090607771</v>
       </c>
       <c r="F23">
-        <v>70.818917375426</v>
+        <v>70.81891737542594</v>
       </c>
       <c r="G23">
-        <v>56.85415419558622</v>
+        <v>56.85415419558615</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>105.8231969486034</v>
+        <v>105.8231969486037</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.05022868410177</v>
+        <v>32.05022868410182</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.848323553072069</v>
+        <v>7.848323553072073</v>
       </c>
       <c r="E24">
-        <v>54.76775582988853</v>
+        <v>54.76775582988833</v>
       </c>
       <c r="F24">
-        <v>59.22587599934146</v>
+        <v>59.22587599934165</v>
       </c>
       <c r="G24">
-        <v>47.35381561473746</v>
+        <v>47.35381561473761</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>93.71996051373162</v>
+        <v>93.71996051373142</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.24241154903472</v>
+        <v>28.24241154903462</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.270703135314296</v>
+        <v>6.270703135314229</v>
       </c>
       <c r="E25">
-        <v>48.29100269216404</v>
+        <v>48.29100269216377</v>
       </c>
       <c r="F25">
-        <v>49.21408487573583</v>
+        <v>49.21408487573567</v>
       </c>
       <c r="G25">
-        <v>39.18621833933879</v>
+        <v>39.18621833933862</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>82.16689438038783</v>
+        <v>82.16689438038749</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_47/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.45347457040136</v>
+        <v>25.45347457040131</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.273295726668039</v>
+        <v>5.27329572666798</v>
       </c>
       <c r="E2">
-        <v>43.56921359322497</v>
+        <v>43.56921359322462</v>
       </c>
       <c r="F2">
-        <v>42.59061159040475</v>
+        <v>42.59061159040454</v>
       </c>
       <c r="G2">
-        <v>33.79746211583362</v>
+        <v>33.79746211583344</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>73.87359722912251</v>
+        <v>73.87359722912204</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.51321421720509</v>
+        <v>23.51321421720512</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.644804122654652</v>
+        <v>4.644804122654712</v>
       </c>
       <c r="E3">
-        <v>40.28917422208242</v>
+        <v>40.28917422208257</v>
       </c>
       <c r="F3">
-        <v>38.28872075891599</v>
+        <v>38.28872075891612</v>
       </c>
       <c r="G3">
-        <v>30.30128499016882</v>
+        <v>30.30128499016894</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>68.16384398666797</v>
+        <v>68.16384398666817</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.28550125219457</v>
+        <v>22.28550125219467</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.271972029212979</v>
+        <v>4.271972029213029</v>
       </c>
       <c r="E4">
-        <v>38.21449835036972</v>
+        <v>38.21449835036978</v>
       </c>
       <c r="F4">
-        <v>35.68805976035356</v>
+        <v>35.68805976035336</v>
       </c>
       <c r="G4">
-        <v>28.18808457892599</v>
+        <v>28.18808457892583</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>64.57116426439649</v>
+        <v>64.57116426439653</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.77475550215875</v>
+        <v>21.77475550215858</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.122208746319305</v>
+        <v>4.122208746319296</v>
       </c>
       <c r="E5">
-        <v>37.3514418297385</v>
+        <v>37.35144182973868</v>
       </c>
       <c r="F5">
-        <v>34.63315286269241</v>
+        <v>34.63315286269221</v>
       </c>
       <c r="G5">
-        <v>27.330787550952</v>
+        <v>27.33078755095183</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>63.08057206803904</v>
+        <v>63.08057206803921</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.68928338979263</v>
+        <v>21.6892833897925</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.097444184977345</v>
+        <v>4.097444184977228</v>
       </c>
       <c r="E6">
-        <v>37.20701001922986</v>
+        <v>37.20701001922968</v>
       </c>
       <c r="F6">
-        <v>34.45815401901037</v>
+        <v>34.45815401901038</v>
       </c>
       <c r="G6">
-        <v>27.18855683758278</v>
+        <v>27.18855683758276</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>62.83133994767163</v>
+        <v>62.83133994767149</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.2786569391162</v>
+        <v>22.27865693911612</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.269944761309481</v>
+        <v>4.269944761309631</v>
       </c>
       <c r="E7">
-        <v>38.20293286928798</v>
+        <v>38.20293286928758</v>
       </c>
       <c r="F7">
-        <v>35.67381908358163</v>
+        <v>35.67381908358174</v>
       </c>
       <c r="G7">
-        <v>28.17651229351375</v>
+        <v>28.17651229351385</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>64.55117452065635</v>
+        <v>64.55117452065599</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.79114277344994</v>
+        <v>24.79114277345001</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.053108749876764</v>
+        <v>5.0531087498769</v>
       </c>
       <c r="E8">
-        <v>42.44925545570674</v>
+        <v>42.44925545570675</v>
       </c>
       <c r="F8">
-        <v>41.09509256952551</v>
+        <v>41.09509256952548</v>
       </c>
       <c r="G8">
-        <v>32.58183380412822</v>
+        <v>32.5818338041282</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>71.91968043112234</v>
+        <v>71.91968043112233</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.5116991789139</v>
+        <v>29.51169917891363</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.76616534535404</v>
+        <v>6.766165345353728</v>
       </c>
       <c r="E9">
-        <v>50.4448915081807</v>
+        <v>50.44489150817996</v>
       </c>
       <c r="F9">
-        <v>52.41683605397807</v>
+        <v>52.41683605397759</v>
       </c>
       <c r="G9">
-        <v>41.79573056490008</v>
+        <v>41.79573056489961</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>85.98357133600372</v>
+        <v>85.9835713360028</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.04461650701551</v>
+        <v>33.0446165070156</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -725,13 +725,13 @@
         <v>8.310066660422253</v>
       </c>
       <c r="E10">
-        <v>56.46861462186518</v>
+        <v>56.46861462186548</v>
       </c>
       <c r="F10">
-        <v>62.05820779658129</v>
+        <v>62.05820779658091</v>
       </c>
       <c r="G10">
-        <v>49.67033542073386</v>
+        <v>49.67033542073363</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>96.7962667456641</v>
+        <v>96.79626674566431</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.76054665893555</v>
+        <v>34.76054665893563</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.165856036057257</v>
+        <v>9.165856036057294</v>
       </c>
       <c r="E11">
-        <v>59.41723652349534</v>
+        <v>59.41723652349609</v>
       </c>
       <c r="F11">
-        <v>67.19996711483529</v>
+        <v>67.19996711483513</v>
       </c>
       <c r="G11">
-        <v>53.88308541752678</v>
+        <v>53.88308541752662</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>102.181193585703</v>
+        <v>102.1811935857038</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.44476827159298</v>
+        <v>35.44476827159289</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.530589925961893</v>
+        <v>9.530589925961841</v>
       </c>
       <c r="E12">
-        <v>60.59882746996276</v>
+        <v>60.59882746996227</v>
       </c>
       <c r="F12">
-        <v>69.35074171687857</v>
+        <v>69.35074171687818</v>
       </c>
       <c r="G12">
-        <v>55.64820591354317</v>
+        <v>55.64820591354286</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>104.3600659842301</v>
+        <v>104.3600659842295</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.29533927664794</v>
+        <v>35.29533927664791</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.449691200882057</v>
+        <v>9.449691200881995</v>
       </c>
       <c r="E13">
-        <v>60.34045461086731</v>
+        <v>60.34045461086727</v>
       </c>
       <c r="F13">
-        <v>68.8757304690921</v>
+        <v>68.87573046909201</v>
       </c>
       <c r="G13">
-        <v>55.25821531661942</v>
+        <v>55.25821531661932</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.81596551640133</v>
+        <v>34.81596551640138</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.194865768684792</v>
+        <v>9.194865768684855</v>
       </c>
       <c r="E14">
-        <v>59.51280340314148</v>
+        <v>59.5128034031415</v>
       </c>
       <c r="F14">
         <v>67.37190122571771</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.52771255486329</v>
+        <v>34.52771255486348</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.044964637362062</v>
+        <v>9.044964637362249</v>
       </c>
       <c r="E15">
-        <v>59.01597612973213</v>
+        <v>59.01597612973254</v>
       </c>
       <c r="F15">
-        <v>66.48183527633118</v>
+        <v>66.48183527633122</v>
       </c>
       <c r="G15">
-        <v>53.29411487723164</v>
+        <v>53.29411487723168</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>101.4441567152639</v>
+        <v>101.4441567152643</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.93589283671036</v>
+        <v>32.93589283671041</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.258433357713596</v>
+        <v>8.258433357713651</v>
       </c>
       <c r="E16">
-        <v>56.28239543265538</v>
+        <v>56.28239543265573</v>
       </c>
       <c r="F16">
-        <v>61.74356238945011</v>
+        <v>61.74356238944998</v>
       </c>
       <c r="G16">
-        <v>49.41285271812156</v>
+        <v>49.4128527181215</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>96.4584602032016</v>
+        <v>96.45846020320195</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.99597050869294</v>
+        <v>31.99597050869305</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.823787093611889</v>
+        <v>7.823787093612007</v>
       </c>
       <c r="E17">
-        <v>54.67509022325249</v>
+        <v>54.67509022325291</v>
       </c>
       <c r="F17">
-        <v>59.07418633706503</v>
+        <v>59.07418633706529</v>
       </c>
       <c r="G17">
-        <v>47.22982943928626</v>
+        <v>47.22982943928649</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>93.55292638867057</v>
+        <v>93.55292638867108</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.46400788383928</v>
+        <v>31.46400788383914</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.586661419846917</v>
+        <v>7.586661419846996</v>
       </c>
       <c r="E18">
-        <v>53.76727066177172</v>
+        <v>53.76727066177146</v>
       </c>
       <c r="F18">
-        <v>57.6019396870634</v>
+        <v>57.60193968706366</v>
       </c>
       <c r="G18">
-        <v>46.02686718993912</v>
+        <v>46.02686718993931</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>91.91948201533151</v>
+        <v>91.91948201533128</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.28504664216244</v>
+        <v>31.28504664216243</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.508259133674961</v>
+        <v>7.508259133675099</v>
       </c>
       <c r="E19">
-        <v>53.46213741701214</v>
+        <v>53.46213741701204</v>
       </c>
       <c r="F19">
-        <v>57.1126303595484</v>
+        <v>57.11263035954879</v>
       </c>
       <c r="G19">
-        <v>45.62721616975906</v>
+        <v>45.62721616975937</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.09504570592541</v>
+        <v>32.09504570592544</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.868640431861762</v>
+        <v>7.868640431861697</v>
       </c>
       <c r="E20">
-        <v>54.84430758956614</v>
+        <v>54.84430758956633</v>
       </c>
       <c r="F20">
-        <v>59.3513877780881</v>
+        <v>59.35138777808814</v>
       </c>
       <c r="G20">
-        <v>47.45641078362068</v>
+        <v>47.45641078362069</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>93.85799152922824</v>
+        <v>93.85799152922841</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1140,16 +1140,16 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.268357083272836</v>
+        <v>9.268357083272821</v>
       </c>
       <c r="E21">
-        <v>59.75366660127454</v>
+        <v>59.75366660127474</v>
       </c>
       <c r="F21">
-        <v>67.80679139843892</v>
+        <v>67.80679139843843</v>
       </c>
       <c r="G21">
-        <v>54.3809206045098</v>
+        <v>54.38092060450943</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>102.8002575292564</v>
+        <v>102.8002575292565</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.05822409481202</v>
+        <v>37.05822409481219</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.45287936352021</v>
+        <v>10.4528793635202</v>
       </c>
       <c r="E22">
-        <v>63.40169852648279</v>
+        <v>63.40169852648351</v>
       </c>
       <c r="F22">
-        <v>74.68657251780134</v>
+        <v>74.68657251780198</v>
       </c>
       <c r="G22">
-        <v>60.03511869398091</v>
+        <v>60.0351186939814</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>109.5855156438605</v>
+        <v>109.5855156438614</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.90061327501694</v>
+        <v>35.90061327501684</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.781874828601767</v>
+        <v>9.781874828601772</v>
       </c>
       <c r="E23">
-        <v>61.38820090607771</v>
+        <v>61.38820090607747</v>
       </c>
       <c r="F23">
-        <v>70.81891737542594</v>
+        <v>70.818917375426</v>
       </c>
       <c r="G23">
-        <v>56.85415419558615</v>
+        <v>56.85415419558622</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>105.8231969486037</v>
+        <v>105.8231969486034</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.05022868410182</v>
+        <v>32.05022868410177</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.848323553072073</v>
+        <v>7.848323553072069</v>
       </c>
       <c r="E24">
-        <v>54.76775582988833</v>
+        <v>54.76775582988853</v>
       </c>
       <c r="F24">
-        <v>59.22587599934165</v>
+        <v>59.22587599934146</v>
       </c>
       <c r="G24">
-        <v>47.35381561473761</v>
+        <v>47.35381561473746</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>93.71996051373142</v>
+        <v>93.71996051373162</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.24241154903462</v>
+        <v>28.24241154903472</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.270703135314229</v>
+        <v>6.270703135314296</v>
       </c>
       <c r="E25">
-        <v>48.29100269216377</v>
+        <v>48.29100269216404</v>
       </c>
       <c r="F25">
-        <v>49.21408487573567</v>
+        <v>49.21408487573583</v>
       </c>
       <c r="G25">
-        <v>39.18621833933862</v>
+        <v>39.18621833933879</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>82.16689438038749</v>
+        <v>82.16689438038783</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_47/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,31 +406,34 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.45347457040131</v>
+        <v>25.4518379790219</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.27329572666798</v>
+        <v>5.264149847313164</v>
       </c>
       <c r="E2">
-        <v>43.56921359322462</v>
+        <v>43.56731631623625</v>
       </c>
       <c r="F2">
-        <v>42.59061159040454</v>
+        <v>42.5424361961688</v>
       </c>
       <c r="G2">
-        <v>33.79746211583344</v>
+        <v>33.83752944344248</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>33.02413007389872</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,36 +442,39 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>73.87359722912204</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>73.86666519691227</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.51321421720512</v>
+        <v>23.51200524458941</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.644804122654712</v>
+        <v>4.636976028476732</v>
       </c>
       <c r="E3">
-        <v>40.28917422208257</v>
+        <v>40.28775099329833</v>
       </c>
       <c r="F3">
-        <v>38.28872075891612</v>
+        <v>38.24657304274913</v>
       </c>
       <c r="G3">
-        <v>30.30128499016894</v>
+        <v>30.33803964770529</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>29.59897150722281</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,36 +483,39 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>68.16384398666817</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>68.1586220203439</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.28550125219467</v>
+        <v>22.28451100699512</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.271972029213029</v>
+        <v>4.264903879176337</v>
       </c>
       <c r="E4">
-        <v>38.21449835036978</v>
+        <v>38.21330695876267</v>
       </c>
       <c r="F4">
-        <v>35.68805976035336</v>
+        <v>35.6493333463161</v>
       </c>
       <c r="G4">
-        <v>28.18808457892583</v>
+        <v>28.22267426197175</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>27.53819306874997</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,36 +524,39 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>64.57116426439653</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>64.56682083966606</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.77475550215858</v>
+        <v>21.77384642976451</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.122208746319296</v>
+        <v>4.115442394993806</v>
       </c>
       <c r="E5">
-        <v>37.35144182973868</v>
+        <v>37.35033459267941</v>
       </c>
       <c r="F5">
-        <v>34.63315286269221</v>
+        <v>34.59577252814843</v>
       </c>
       <c r="G5">
-        <v>27.33078755095183</v>
+        <v>27.36446980292914</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>26.70469257101538</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,36 +565,39 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>63.08057206803921</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>63.07655577163603</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.6892833897925</v>
+        <v>21.68838738490818</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.097444184977228</v>
+        <v>4.090727575130741</v>
       </c>
       <c r="E6">
-        <v>37.20701001922968</v>
+        <v>37.20591623607349</v>
       </c>
       <c r="F6">
-        <v>34.45815401901038</v>
+        <v>34.42099480376203</v>
       </c>
       <c r="G6">
-        <v>27.18855683758276</v>
+        <v>27.22208706108461</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>26.56656748293107</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,36 +606,39 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>62.83133994767149</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>62.82737638426037</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.27865693911612</v>
+        <v>22.27766781761033</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.269944761309631</v>
+        <v>4.262880708491</v>
       </c>
       <c r="E7">
-        <v>38.20293286928758</v>
+        <v>38.20174264955702</v>
       </c>
       <c r="F7">
-        <v>35.67381908358174</v>
+        <v>35.63511099421222</v>
       </c>
       <c r="G7">
-        <v>28.17651229351385</v>
+        <v>28.21108983257455</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>27.52693153676584</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,36 +647,39 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>64.55117452065599</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>64.54683561967846</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.79114277345001</v>
+        <v>24.78966496858014</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.0531087498769</v>
+        <v>5.044430686755718</v>
       </c>
       <c r="E8">
-        <v>42.44925545570675</v>
+        <v>42.44753729653682</v>
       </c>
       <c r="F8">
-        <v>41.09509256952548</v>
+        <v>41.04906971412338</v>
       </c>
       <c r="G8">
-        <v>32.5818338041282</v>
+        <v>32.62079195202426</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>31.83127714577173</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,36 +688,39 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>71.91968043112233</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>71.913382567254</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.51169917891363</v>
+        <v>29.50867170248853</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.766165345353728</v>
+        <v>6.75359192777039</v>
       </c>
       <c r="E9">
-        <v>50.44489150817996</v>
+        <v>50.44129625950238</v>
       </c>
       <c r="F9">
-        <v>52.41683605397759</v>
+        <v>52.35254078685344</v>
       </c>
       <c r="G9">
-        <v>41.79573056489961</v>
+        <v>41.84155842525842</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>40.90927472844017</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,36 +729,39 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>85.9835713360028</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>85.9711026103554</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.0446165070156</v>
+        <v>33.039307194105</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.310066660422253</v>
+        <v>8.293157505425237</v>
       </c>
       <c r="E10">
-        <v>56.46861462186548</v>
+        <v>56.46188577494404</v>
       </c>
       <c r="F10">
-        <v>62.05820779658091</v>
+        <v>61.97288426538174</v>
       </c>
       <c r="G10">
-        <v>49.67033542073363</v>
+        <v>49.71764871536045</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>48.71209175343118</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,36 +770,39 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>96.79626674566431</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>96.77473647638192</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.76054665893563</v>
+        <v>34.75335984378264</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.165856036057294</v>
+        <v>9.145924202770479</v>
       </c>
       <c r="E11">
-        <v>59.41723652349609</v>
+        <v>59.40772329989372</v>
       </c>
       <c r="F11">
-        <v>67.19996711483513</v>
+        <v>67.09971888087799</v>
       </c>
       <c r="G11">
-        <v>53.88308541752662</v>
+        <v>53.928160320063</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>52.89513911530517</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,36 +811,39 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>102.1811935857038</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>102.1522125165319</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.44476827159289</v>
+        <v>35.43658127374055</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.530589925961841</v>
+        <v>9.509162813625892</v>
       </c>
       <c r="E12">
-        <v>60.59882746996227</v>
+        <v>60.58777747695222</v>
       </c>
       <c r="F12">
-        <v>69.35074171687818</v>
+        <v>69.24305816240664</v>
       </c>
       <c r="G12">
-        <v>55.64820591354286</v>
+        <v>55.69136190112548</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>54.64873398677825</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,36 +852,39 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>104.3600659842295</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>104.3271164222229</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.29533927664791</v>
+        <v>35.28738656200688</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.449691200881995</v>
+        <v>9.428608695256987</v>
       </c>
       <c r="E13">
-        <v>60.34045461086727</v>
+        <v>60.32976743741602</v>
       </c>
       <c r="F13">
-        <v>68.87573046909201</v>
+        <v>68.76976295075377</v>
       </c>
       <c r="G13">
-        <v>55.25821531661932</v>
+        <v>55.30185617530904</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>54.26126248121692</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,36 +893,39 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>103.8825003157992</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>103.850480307174</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.81596551640138</v>
+        <v>34.80870419439759</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.194865768684855</v>
+        <v>9.174820251242387</v>
       </c>
       <c r="E14">
-        <v>59.5128034031415</v>
+        <v>59.50317683733724</v>
       </c>
       <c r="F14">
-        <v>67.37190122571771</v>
+        <v>67.27108872478101</v>
       </c>
       <c r="G14">
-        <v>54.02412493441601</v>
+        <v>54.06907130926852</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>53.03524405271628</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,36 +934,39 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>102.356941953225</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>102.3276652462311</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.52771255486348</v>
+        <v>34.52082761149695</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.044964637362249</v>
+        <v>9.025497616175429</v>
       </c>
       <c r="E15">
-        <v>59.01597612973254</v>
+        <v>59.00692010836093</v>
       </c>
       <c r="F15">
-        <v>66.48183527633122</v>
+        <v>66.38389217348117</v>
       </c>
       <c r="G15">
-        <v>53.29411487723168</v>
+        <v>53.33968397631062</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>52.31010361178401</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,36 +975,39 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>101.4441567152643</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>101.4163734753776</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.93589283671041</v>
+        <v>32.93067973253888</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.258433357713651</v>
+        <v>8.241689064581967</v>
       </c>
       <c r="E16">
-        <v>56.28239543265573</v>
+        <v>56.27580503445633</v>
       </c>
       <c r="F16">
-        <v>61.74356238944998</v>
+        <v>61.65904778977402</v>
       </c>
       <c r="G16">
-        <v>49.4128527181215</v>
+        <v>49.46021731071647</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>48.45656842095939</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,36 +1016,39 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>96.45846020320195</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>96.4373118078601</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.99597050869305</v>
+        <v>31.99150469637818</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.823787093612007</v>
+        <v>7.808367261491493</v>
       </c>
       <c r="E17">
-        <v>54.67509022325291</v>
+        <v>54.66955836182771</v>
       </c>
       <c r="F17">
-        <v>59.07418633706529</v>
+        <v>58.99614701985145</v>
       </c>
       <c r="G17">
-        <v>47.22982943928649</v>
+        <v>47.27731271120628</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>46.29103152019838</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,36 +1057,39 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>93.55292638867108</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>93.53474454878766</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.46400788383914</v>
+        <v>31.45990718793809</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.586661419846996</v>
+        <v>7.571921472913192</v>
       </c>
       <c r="E18">
-        <v>53.76727066177146</v>
+        <v>53.76224410093352</v>
       </c>
       <c r="F18">
-        <v>57.60193968706366</v>
+        <v>57.52720643242753</v>
       </c>
       <c r="G18">
-        <v>46.02686718993931</v>
+        <v>46.07419989926191</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>45.09846210647381</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,36 +1098,39 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>91.91948201533128</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>91.90274991309404</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.28504664216243</v>
+        <v>31.2810607143625</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.508259133675099</v>
+        <v>7.493738081464844</v>
       </c>
       <c r="E19">
-        <v>53.46213741701204</v>
+        <v>53.45726791755853</v>
       </c>
       <c r="F19">
-        <v>57.11263035954879</v>
+        <v>57.03895867400263</v>
       </c>
       <c r="G19">
-        <v>45.62721616975937</v>
+        <v>45.67446863762325</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>44.70239772340572</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,36 +1139,39 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>91.37162394953565</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>91.3553476035775</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.09504570592544</v>
+        <v>32.09050763399459</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.868640431861697</v>
+        <v>7.853088810315518</v>
       </c>
       <c r="E20">
-        <v>54.84430758956633</v>
+        <v>54.83867475221372</v>
       </c>
       <c r="F20">
-        <v>59.35138777808814</v>
+        <v>59.27270613228839</v>
       </c>
       <c r="G20">
-        <v>47.45641078362069</v>
+        <v>47.50390627071219</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>46.51571936723469</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,36 +1180,39 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>93.85799152922841</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>93.83952280247102</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.95558094459108</v>
+        <v>34.9481271493234</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.268357083272821</v>
+        <v>9.248019699868959</v>
       </c>
       <c r="E21">
-        <v>59.75366660127474</v>
+        <v>59.74374635715976</v>
       </c>
       <c r="F21">
-        <v>67.80679139843843</v>
+        <v>67.70452941192072</v>
       </c>
       <c r="G21">
-        <v>54.38092060450943</v>
+        <v>54.42552353630536</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>53.38968755688225</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,36 +1221,39 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>102.8002575292565</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>102.7702171120606</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.05822409481219</v>
+        <v>37.04672258985627</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.4528793635202</v>
+        <v>10.42685074323893</v>
       </c>
       <c r="E22">
-        <v>63.40169852648351</v>
+        <v>63.38536502139284</v>
       </c>
       <c r="F22">
-        <v>74.68657251780198</v>
+        <v>74.55587024134522</v>
       </c>
       <c r="G22">
-        <v>60.0351186939814</v>
+        <v>60.06972694375617</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>59.00737050998429</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,36 +1262,39 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>109.5855156438614</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>109.5394163265625</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.90061327501684</v>
+        <v>35.89164797477644</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.781874828601772</v>
+        <v>9.759324535010821</v>
       </c>
       <c r="E23">
-        <v>61.38820090607747</v>
+        <v>61.37593424128179</v>
       </c>
       <c r="F23">
-        <v>70.818917375426</v>
+        <v>70.70563175003508</v>
       </c>
       <c r="G23">
-        <v>56.85415419558622</v>
+        <v>56.89556486113224</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>55.84694968595551</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,36 +1303,39 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>105.8231969486034</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>105.7871594516819</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.05022868410177</v>
+        <v>32.04572347363992</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.848323553072069</v>
+        <v>7.832831757861565</v>
       </c>
       <c r="E24">
-        <v>54.76775582988853</v>
+        <v>54.7621689519213</v>
       </c>
       <c r="F24">
-        <v>59.22587599934146</v>
+        <v>59.14748599873631</v>
       </c>
       <c r="G24">
-        <v>47.35381561473746</v>
+        <v>47.40130623059378</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>46.41397915608925</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,36 +1344,39 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>93.71996051373162</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>93.70162225331978</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.24241154903472</v>
+        <v>28.23991434801861</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.270703135314296</v>
+        <v>6.259326862387647</v>
       </c>
       <c r="E25">
-        <v>48.29100269216404</v>
+        <v>48.28807917141243</v>
       </c>
       <c r="F25">
-        <v>49.21408487573583</v>
+        <v>49.15548219450177</v>
       </c>
       <c r="G25">
-        <v>39.18621833933879</v>
+        <v>39.2305124934977</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>38.33088206602833</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,9 +1385,12 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>82.16689438038783</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>82.15653410818446</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_47/res_line/loading_percent.xlsx
@@ -420,162 +420,624 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
       <c r="D2">
-        <v>0</v>
+        <v>5.591944140733568</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>10.05605031166842</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>34.94076780113593</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.018659076075523</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
+        <v>6.505510476629698</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>25.34282081938646</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>5.509542254810759</v>
+      </c>
+      <c r="E3">
+        <v>9.68574581026383</v>
+      </c>
+      <c r="F3">
+        <v>32.91094010534458</v>
+      </c>
+      <c r="G3">
+        <v>2.028083600574576</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>6.347183537701423</v>
+      </c>
+      <c r="O3">
+        <v>23.90674037345187</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="D4">
+        <v>5.461560319934031</v>
+      </c>
+      <c r="E4">
+        <v>9.459686194417166</v>
+      </c>
+      <c r="F4">
+        <v>31.63264957697415</v>
+      </c>
+      <c r="G4">
+        <v>2.03401344021883</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>6.253005771586754</v>
+      </c>
+      <c r="O4">
+        <v>23.00435661755814</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="D5">
+        <v>5.442661042716776</v>
+      </c>
+      <c r="E5">
+        <v>9.367989606335202</v>
+      </c>
+      <c r="F5">
+        <v>31.10412603552635</v>
+      </c>
+      <c r="G5">
+        <v>2.036468009631652</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>6.215404718613519</v>
+      </c>
+      <c r="O5">
+        <v>22.63176236976201</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="D6">
+        <v>5.439562208516054</v>
+      </c>
+      <c r="E6">
+        <v>9.352792098568449</v>
+      </c>
+      <c r="F6">
+        <v>31.01592056669671</v>
+      </c>
+      <c r="G6">
+        <v>2.036877949835234</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>6.20920844445122</v>
+      </c>
+      <c r="O6">
+        <v>22.56961067760953</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="D7">
+        <v>5.461302795450968</v>
+      </c>
+      <c r="E7">
+        <v>9.458447689027027</v>
+      </c>
+      <c r="F7">
+        <v>31.62555187361002</v>
+      </c>
+      <c r="G7">
+        <v>2.034046386399745</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>6.252495505254445</v>
+      </c>
+      <c r="O7">
+        <v>22.99935089068952</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="D8">
+        <v>5.56298768144838</v>
+      </c>
+      <c r="E8">
+        <v>9.928151203337572</v>
+      </c>
+      <c r="F8">
+        <v>34.24773576282921</v>
+      </c>
+      <c r="G8">
+        <v>2.021880268192807</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>6.45029723828732</v>
+      </c>
+      <c r="O8">
+        <v>24.85210508620571</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="D9">
+        <v>5.783284541258912</v>
+      </c>
+      <c r="E9">
+        <v>10.85613478473572</v>
+      </c>
+      <c r="F9">
+        <v>39.12388785238259</v>
+      </c>
+      <c r="G9">
+        <v>1.999053524485952</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>6.861777300058002</v>
+      </c>
+      <c r="O9">
+        <v>28.3122953949093</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="D10">
+        <v>5.958160215963489</v>
+      </c>
+      <c r="E10">
+        <v>11.53867178038666</v>
+      </c>
+      <c r="F10">
+        <v>42.56026200681373</v>
+      </c>
+      <c r="G10">
+        <v>1.982749165550268</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>7.178111463294499</v>
+      </c>
+      <c r="O10">
+        <v>30.97798833172133</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="D11">
+        <v>6.040636439145194</v>
+      </c>
+      <c r="E11">
+        <v>11.84899245098895</v>
+      </c>
+      <c r="F11">
+        <v>44.17441385587458</v>
+      </c>
+      <c r="G11">
+        <v>1.975391994159951</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>7.32510390666434</v>
+      </c>
+      <c r="O11">
+        <v>32.19051817899652</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="D12">
+        <v>6.072299201332813</v>
+      </c>
+      <c r="E12">
+        <v>11.96647735291012</v>
+      </c>
+      <c r="F12">
+        <v>44.7788632777788</v>
+      </c>
+      <c r="G12">
+        <v>1.972610704587438</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>7.38122363305015</v>
+      </c>
+      <c r="O12">
+        <v>32.64403066042649</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="D13">
+        <v>6.065460696637778</v>
+      </c>
+      <c r="E13">
+        <v>11.94117585996858</v>
+      </c>
+      <c r="F13">
+        <v>44.64898053517224</v>
+      </c>
+      <c r="G13">
+        <v>1.973209562596275</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>7.369116621920849</v>
+      </c>
+      <c r="O13">
+        <v>32.54660438422958</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="D14">
+        <v>6.043232648078805</v>
+      </c>
+      <c r="E14">
+        <v>11.85865847319025</v>
+      </c>
+      <c r="F14">
+        <v>44.22427633958407</v>
+      </c>
+      <c r="G14">
+        <v>1.975163105347375</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>7.329711647399797</v>
+      </c>
+      <c r="O14">
+        <v>32.22794016964598</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="D15">
+        <v>6.029673795463321</v>
+      </c>
+      <c r="E15">
+        <v>11.80811102267502</v>
+      </c>
+      <c r="F15">
+        <v>43.96325868453152</v>
+      </c>
+      <c r="G15">
+        <v>1.976360196754507</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>7.305634998338674</v>
+      </c>
+      <c r="O15">
+        <v>32.03202365751716</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="D16">
+        <v>5.952829848734396</v>
+      </c>
+      <c r="E16">
+        <v>11.51838745774567</v>
+      </c>
+      <c r="F16">
+        <v>42.45380350123708</v>
+      </c>
+      <c r="G16">
+        <v>1.98323085553315</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>7.168568199027789</v>
+      </c>
+      <c r="O16">
+        <v>30.897939028422</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="D17">
+        <v>5.906443860560254</v>
+      </c>
+      <c r="E17">
+        <v>11.34059919135282</v>
+      </c>
+      <c r="F17">
+        <v>41.55801237907848</v>
+      </c>
+      <c r="G17">
+        <v>1.98745847363852</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>7.085279630416141</v>
+      </c>
+      <c r="O17">
+        <v>30.19182198273187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="D18">
+        <v>5.880038333278816</v>
+      </c>
+      <c r="E18">
+        <v>11.23832296704866</v>
+      </c>
+      <c r="F18">
+        <v>41.04918656822794</v>
+      </c>
+      <c r="G18">
+        <v>1.989895971672456</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>7.037663861899134</v>
+      </c>
+      <c r="O18">
+        <v>29.78177060295229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="D19">
+        <v>5.871144756356848</v>
+      </c>
+      <c r="E19">
+        <v>11.20369150526941</v>
+      </c>
+      <c r="F19">
+        <v>40.87631547782054</v>
+      </c>
+      <c r="G19">
+        <v>1.990722387846924</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>7.021591495120227</v>
+      </c>
+      <c r="O19">
+        <v>29.64225434601357</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="D20">
+        <v>5.911353258378512</v>
+      </c>
+      <c r="E20">
+        <v>11.35952691864265</v>
+      </c>
+      <c r="F20">
+        <v>41.65190454903222</v>
+      </c>
+      <c r="G20">
+        <v>1.98700785412081</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>7.094115806841097</v>
+      </c>
+      <c r="O20">
+        <v>30.26739221130741</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="D21">
+        <v>6.049749773184612</v>
+      </c>
+      <c r="E21">
+        <v>11.88289646170881</v>
+      </c>
+      <c r="F21">
+        <v>44.34920372612574</v>
+      </c>
+      <c r="G21">
+        <v>1.974589207987987</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>7.34127329590198</v>
+      </c>
+      <c r="O21">
+        <v>32.3216901486498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="D22">
+        <v>6.142718480573691</v>
+      </c>
+      <c r="E22">
+        <v>12.22480831633344</v>
+      </c>
+      <c r="F22">
+        <v>46.09629885231932</v>
+      </c>
+      <c r="G22">
+        <v>1.966498197709337</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>7.505481212838329</v>
+      </c>
+      <c r="O22">
+        <v>33.63156322981374</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="D23">
+        <v>6.092864511710795</v>
+      </c>
+      <c r="E23">
+        <v>12.04233105620552</v>
+      </c>
+      <c r="F23">
+        <v>45.167318691639</v>
+      </c>
+      <c r="G23">
+        <v>1.970815622323559</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>7.417588721244252</v>
+      </c>
+      <c r="O23">
+        <v>32.93534017295778</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="D24">
+        <v>5.909132903045244</v>
+      </c>
+      <c r="E24">
+        <v>11.35096989004879</v>
+      </c>
+      <c r="F24">
+        <v>41.60946727808901</v>
+      </c>
+      <c r="G24">
+        <v>1.987211557164313</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>7.090120137712917</v>
+      </c>
+      <c r="O24">
+        <v>30.23323968857014</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="D25">
+        <v>5.721425641350449</v>
+      </c>
+      <c r="E25">
+        <v>10.60477481626622</v>
+      </c>
+      <c r="F25">
+        <v>37.83445787832174</v>
+      </c>
+      <c r="G25">
+        <v>2.00513410632097</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>6.747989500648916</v>
+      </c>
+      <c r="O25">
+        <v>27.3957102021385</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_47/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.591944140733568</v>
+        <v>9.053051090061398</v>
       </c>
       <c r="E2">
-        <v>10.05605031166842</v>
+        <v>13.49814074132279</v>
       </c>
       <c r="F2">
-        <v>34.94076780113593</v>
+        <v>34.16091268773713</v>
       </c>
       <c r="G2">
-        <v>2.018659076075523</v>
+        <v>3.623242451708317</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.505510476629698</v>
+        <v>9.848448925951388</v>
       </c>
       <c r="O2">
-        <v>25.34282081938646</v>
+        <v>25.54137488967321</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -447,25 +447,25 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>5.509542254810759</v>
+        <v>9.062502353047789</v>
       </c>
       <c r="E3">
-        <v>9.68574581026383</v>
+        <v>13.47515106134688</v>
       </c>
       <c r="F3">
-        <v>32.91094010534458</v>
+        <v>33.77373060893166</v>
       </c>
       <c r="G3">
-        <v>2.028083600574576</v>
+        <v>3.626715730940524</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.347183537701423</v>
+        <v>9.851853114224138</v>
       </c>
       <c r="O3">
-        <v>23.90674037345187</v>
+        <v>25.28327326623468</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -473,25 +473,25 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>5.461560319934031</v>
+        <v>9.069618107795316</v>
       </c>
       <c r="E4">
-        <v>9.459686194417166</v>
+        <v>13.463975922457</v>
       </c>
       <c r="F4">
-        <v>31.63264957697415</v>
+        <v>33.54394766294422</v>
       </c>
       <c r="G4">
-        <v>2.03401344021883</v>
+        <v>3.628960586445144</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.253005771586754</v>
+        <v>9.855753084105787</v>
       </c>
       <c r="O4">
-        <v>23.00435661755814</v>
+        <v>25.13087928067928</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -499,25 +499,25 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>5.442661042716776</v>
+        <v>9.072847943946005</v>
       </c>
       <c r="E5">
-        <v>9.367989606335202</v>
+        <v>13.46016374882358</v>
       </c>
       <c r="F5">
-        <v>31.10412603552635</v>
+        <v>33.45241244229445</v>
       </c>
       <c r="G5">
-        <v>2.036468009631652</v>
+        <v>3.629903714509452</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.215404718613519</v>
+        <v>9.857797311550794</v>
       </c>
       <c r="O5">
-        <v>22.63176236976201</v>
+        <v>25.07037136719902</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -525,25 +525,25 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>5.439562208516054</v>
+        <v>9.073404193405823</v>
       </c>
       <c r="E6">
-        <v>9.352792098568449</v>
+        <v>13.45957559886175</v>
       </c>
       <c r="F6">
-        <v>31.01592056669671</v>
+        <v>33.43734307526295</v>
       </c>
       <c r="G6">
-        <v>2.036877949835234</v>
+        <v>3.630062034442503</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.20920844445122</v>
+        <v>9.858164225332509</v>
       </c>
       <c r="O6">
-        <v>22.56961067760953</v>
+        <v>25.06042215919873</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -551,25 +551,25 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>5.461302795450968</v>
+        <v>9.069660329893461</v>
       </c>
       <c r="E7">
-        <v>9.458447689027027</v>
+        <v>13.46392150404267</v>
       </c>
       <c r="F7">
-        <v>31.62555187361002</v>
+        <v>33.54270453687657</v>
       </c>
       <c r="G7">
-        <v>2.034046386399745</v>
+        <v>3.628973190948789</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.252495505254445</v>
+        <v>9.855778811462393</v>
       </c>
       <c r="O7">
-        <v>22.99935089068952</v>
+        <v>25.13005671365274</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -577,25 +577,25 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>5.56298768144838</v>
+        <v>9.05603748192066</v>
       </c>
       <c r="E8">
-        <v>9.928151203337572</v>
+        <v>13.48960515884913</v>
       </c>
       <c r="F8">
-        <v>34.24773576282921</v>
+        <v>34.02582672660022</v>
       </c>
       <c r="G8">
-        <v>2.021880268192807</v>
+        <v>3.624416804934584</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.45029723828732</v>
+        <v>9.849247038929464</v>
       </c>
       <c r="O8">
-        <v>24.85210508620571</v>
+        <v>25.45115907981998</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -603,25 +603,25 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>5.783284541258912</v>
+        <v>9.039735604397226</v>
       </c>
       <c r="E9">
-        <v>10.85613478473572</v>
+        <v>13.56317490237909</v>
       </c>
       <c r="F9">
-        <v>39.12388785238259</v>
+        <v>35.03149178840453</v>
       </c>
       <c r="G9">
-        <v>1.999053524485952</v>
+        <v>3.616367576087087</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.861777300058002</v>
+        <v>9.850798242082538</v>
       </c>
       <c r="O9">
-        <v>28.3122953949093</v>
+        <v>26.12609398011729</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -629,25 +629,25 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>5.958160215963489</v>
+        <v>9.034100795024408</v>
       </c>
       <c r="E10">
-        <v>11.53867178038666</v>
+        <v>13.63116400232298</v>
       </c>
       <c r="F10">
-        <v>42.56026200681373</v>
+        <v>35.79921196626661</v>
       </c>
       <c r="G10">
-        <v>1.982749165550268</v>
+        <v>3.610987116409229</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.178111463294499</v>
+        <v>9.860684287964897</v>
       </c>
       <c r="O10">
-        <v>30.97798833172133</v>
+        <v>26.64535503308258</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -655,25 +655,25 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>6.040636439145194</v>
+        <v>9.03291216000437</v>
       </c>
       <c r="E11">
-        <v>11.84899245098895</v>
+        <v>13.66506339699854</v>
       </c>
       <c r="F11">
-        <v>44.17441385587458</v>
+        <v>36.1532782404719</v>
       </c>
       <c r="G11">
-        <v>1.975391994159951</v>
+        <v>3.608653775659333</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.32510390666434</v>
+        <v>9.867075651012993</v>
       </c>
       <c r="O11">
-        <v>32.19051817899652</v>
+        <v>26.88572683328334</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -681,25 +681,25 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>6.072299201332813</v>
+        <v>9.032659395609095</v>
       </c>
       <c r="E12">
-        <v>11.96647735291012</v>
+        <v>13.67832158929044</v>
       </c>
       <c r="F12">
-        <v>44.7788632777788</v>
+        <v>36.28792533965274</v>
       </c>
       <c r="G12">
-        <v>1.972610704587438</v>
+        <v>3.607786520170719</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.38122363305015</v>
+        <v>9.869767470888247</v>
       </c>
       <c r="O12">
-        <v>32.64403066042649</v>
+        <v>26.97726771910311</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -707,25 +707,25 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>6.065460696637778</v>
+        <v>9.032705061912399</v>
       </c>
       <c r="E13">
-        <v>11.94117585996858</v>
+        <v>13.67544756740461</v>
       </c>
       <c r="F13">
-        <v>44.64898053517224</v>
+        <v>36.25890330013041</v>
       </c>
       <c r="G13">
-        <v>1.973209562596275</v>
+        <v>3.607972574463286</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.369116621920849</v>
+        <v>9.869175677268132</v>
       </c>
       <c r="O13">
-        <v>32.54660438422958</v>
+        <v>26.95753102762606</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -733,25 +733,25 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>6.043232648078805</v>
+        <v>9.032887411950668</v>
       </c>
       <c r="E14">
-        <v>11.85865847319025</v>
+        <v>13.66614575069772</v>
       </c>
       <c r="F14">
-        <v>44.22427633958407</v>
+        <v>36.1643450253973</v>
       </c>
       <c r="G14">
-        <v>1.975163105347375</v>
+        <v>3.608582099321673</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.329711647399797</v>
+        <v>9.867291671810767</v>
       </c>
       <c r="O14">
-        <v>32.22794016964598</v>
+        <v>26.89324805125596</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -759,25 +759,25 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <v>6.029673795463321</v>
+        <v>9.033024795923772</v>
       </c>
       <c r="E15">
-        <v>11.80811102267502</v>
+        <v>13.66050278847523</v>
       </c>
       <c r="F15">
-        <v>43.96325868453152</v>
+        <v>36.10649589555681</v>
       </c>
       <c r="G15">
-        <v>1.976360196754507</v>
+        <v>3.60895757458505</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.305634998338674</v>
+        <v>9.866173000034957</v>
       </c>
       <c r="O15">
-        <v>32.03202365751716</v>
+        <v>26.85393784757931</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -785,25 +785,25 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>5.952829848734396</v>
+        <v>9.034206110330613</v>
       </c>
       <c r="E16">
-        <v>11.51838745774567</v>
+        <v>13.62900788030516</v>
       </c>
       <c r="F16">
-        <v>42.45380350123708</v>
+        <v>35.77615939628461</v>
       </c>
       <c r="G16">
-        <v>1.98323085553315</v>
+        <v>3.611141896301158</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.168568199027789</v>
+        <v>9.860304646131771</v>
       </c>
       <c r="O16">
-        <v>30.897939028422</v>
+        <v>26.62972294951099</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -811,25 +811,25 @@
         <v>15</v>
       </c>
       <c r="D17">
-        <v>5.906443860560254</v>
+        <v>9.035282680972772</v>
       </c>
       <c r="E17">
-        <v>11.34059919135282</v>
+        <v>13.6104436073156</v>
       </c>
       <c r="F17">
-        <v>41.55801237907848</v>
+        <v>35.57465633020652</v>
       </c>
       <c r="G17">
-        <v>1.98745847363852</v>
+        <v>3.612511099625995</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.085279630416141</v>
+        <v>9.85718921014708</v>
       </c>
       <c r="O17">
-        <v>30.19182198273187</v>
+        <v>26.49318197498341</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -837,25 +837,25 @@
         <v>16</v>
       </c>
       <c r="D18">
-        <v>5.880038333278816</v>
+        <v>9.036031310257808</v>
       </c>
       <c r="E18">
-        <v>11.23832296704866</v>
+        <v>13.60004595055619</v>
       </c>
       <c r="F18">
-        <v>41.04918656822794</v>
+        <v>35.45921881065974</v>
       </c>
       <c r="G18">
-        <v>1.989895971672456</v>
+        <v>3.613309389561933</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.037663861899134</v>
+        <v>9.855575641806704</v>
       </c>
       <c r="O18">
-        <v>29.78177060295229</v>
+        <v>26.41504338001172</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -863,25 +863,25 @@
         <v>17</v>
       </c>
       <c r="D19">
-        <v>5.871144756356848</v>
+        <v>9.036307019224624</v>
       </c>
       <c r="E19">
-        <v>11.20369150526941</v>
+        <v>13.59657374906443</v>
       </c>
       <c r="F19">
-        <v>40.87631547782054</v>
+        <v>35.42021674247751</v>
       </c>
       <c r="G19">
-        <v>1.990722387846924</v>
+        <v>3.613581527980637</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.021591495120227</v>
+        <v>9.855059968827739</v>
       </c>
       <c r="O19">
-        <v>29.64225434601357</v>
+        <v>26.38865748438569</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -889,25 +889,25 @@
         <v>18</v>
       </c>
       <c r="D20">
-        <v>5.911353258378512</v>
+        <v>9.035154686480707</v>
       </c>
       <c r="E20">
-        <v>11.35952691864265</v>
+        <v>13.61239086607601</v>
       </c>
       <c r="F20">
-        <v>41.65190454903222</v>
+        <v>35.59605979171576</v>
       </c>
       <c r="G20">
-        <v>1.98700785412081</v>
+        <v>3.612364232665131</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.094115806841097</v>
+        <v>9.857502400698968</v>
       </c>
       <c r="O20">
-        <v>30.26739221130741</v>
+        <v>26.50767657635952</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -915,25 +915,25 @@
         <v>19</v>
       </c>
       <c r="D21">
-        <v>6.049749773184612</v>
+        <v>9.032828498380541</v>
       </c>
       <c r="E21">
-        <v>11.88289646170881</v>
+        <v>13.66886653821913</v>
       </c>
       <c r="F21">
-        <v>44.34920372612574</v>
+        <v>36.19210460187967</v>
       </c>
       <c r="G21">
-        <v>1.974589207987987</v>
+        <v>3.60840262469864</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.34127329590198</v>
+        <v>9.86783768764054</v>
       </c>
       <c r="O21">
-        <v>32.3216901486498</v>
+        <v>26.91211612260948</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -941,25 +941,25 @@
         <v>20</v>
       </c>
       <c r="D22">
-        <v>6.142718480573691</v>
+        <v>9.032458281489083</v>
       </c>
       <c r="E22">
-        <v>12.22480831633344</v>
+        <v>13.70822871588961</v>
       </c>
       <c r="F22">
-        <v>46.09629885231932</v>
+        <v>36.58491920749571</v>
       </c>
       <c r="G22">
-        <v>1.966498197709337</v>
+        <v>3.6059086225994</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.505481212838329</v>
+        <v>9.876174675601836</v>
       </c>
       <c r="O22">
-        <v>33.63156322981374</v>
+        <v>27.17941864542273</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -967,25 +967,25 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>6.092864511710795</v>
+        <v>9.03255076728813</v>
       </c>
       <c r="E23">
-        <v>12.04233105620552</v>
+        <v>13.68699813834027</v>
       </c>
       <c r="F23">
-        <v>45.167318691639</v>
+        <v>36.37500870070382</v>
       </c>
       <c r="G23">
-        <v>1.970815622323559</v>
+        <v>3.607231046284066</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.417588721244252</v>
+        <v>9.871580611595846</v>
       </c>
       <c r="O23">
-        <v>32.93534017295778</v>
+        <v>27.0365083911839</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -993,25 +993,25 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>5.909132903045244</v>
+        <v>9.035212148792517</v>
       </c>
       <c r="E24">
-        <v>11.35096989004879</v>
+        <v>13.61150965277872</v>
       </c>
       <c r="F24">
-        <v>41.60946727808901</v>
+        <v>35.58638200237991</v>
       </c>
       <c r="G24">
-        <v>1.987211557164313</v>
+        <v>3.612430596582852</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.090120137712917</v>
+        <v>9.85736025418865</v>
       </c>
       <c r="O24">
-        <v>30.23323968857014</v>
+        <v>26.50112243756121</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1019,25 +1019,25 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>5.721425641350449</v>
+        <v>9.043031288583045</v>
       </c>
       <c r="E25">
-        <v>10.60477481626622</v>
+        <v>13.54080724258624</v>
       </c>
       <c r="F25">
-        <v>37.83445787832174</v>
+        <v>34.75387368245422</v>
       </c>
       <c r="G25">
-        <v>2.00513410632097</v>
+        <v>3.618450967720438</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.747989500648916</v>
+        <v>9.848841359131448</v>
       </c>
       <c r="O25">
-        <v>27.3957102021385</v>
+        <v>25.93908695842777</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_47/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.053051090061398</v>
+        <v>5.591944140733509</v>
       </c>
       <c r="E2">
-        <v>13.49814074132279</v>
+        <v>10.05605031166835</v>
       </c>
       <c r="F2">
-        <v>34.16091268773713</v>
+        <v>34.94076780113593</v>
       </c>
       <c r="G2">
-        <v>3.623242451708317</v>
+        <v>2.018659076075654</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.848448925951388</v>
+        <v>6.505510476629651</v>
       </c>
       <c r="O2">
-        <v>25.54137488967321</v>
+        <v>25.34282081938646</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -447,25 +447,25 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>9.062502353047789</v>
+        <v>5.509542254810748</v>
       </c>
       <c r="E3">
-        <v>13.47515106134688</v>
+        <v>9.685745810263834</v>
       </c>
       <c r="F3">
-        <v>33.77373060893166</v>
+        <v>32.91094010534451</v>
       </c>
       <c r="G3">
-        <v>3.626715730940524</v>
+        <v>2.028083600574575</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.851853114224138</v>
+        <v>6.347183537701402</v>
       </c>
       <c r="O3">
-        <v>25.28327326623468</v>
+        <v>23.90674037345182</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -473,25 +473,25 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>9.069618107795316</v>
+        <v>5.46156031993394</v>
       </c>
       <c r="E4">
-        <v>13.463975922457</v>
+        <v>9.459686194417158</v>
       </c>
       <c r="F4">
-        <v>33.54394766294422</v>
+        <v>31.63264957697417</v>
       </c>
       <c r="G4">
-        <v>3.628960586445144</v>
+        <v>2.034013440218957</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.855753084105787</v>
+        <v>6.253005771586771</v>
       </c>
       <c r="O4">
-        <v>25.13087928067928</v>
+        <v>23.00435661755816</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -499,25 +499,25 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>9.072847943946005</v>
+        <v>5.442661042716728</v>
       </c>
       <c r="E5">
-        <v>13.46016374882358</v>
+        <v>9.367989606335184</v>
       </c>
       <c r="F5">
-        <v>33.45241244229445</v>
+        <v>31.10412603552633</v>
       </c>
       <c r="G5">
-        <v>3.629903714509452</v>
+        <v>2.036468009631653</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.857797311550794</v>
+        <v>6.215404718613532</v>
       </c>
       <c r="O5">
-        <v>25.07037136719902</v>
+        <v>22.63176236976199</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -525,25 +525,25 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>9.073404193405823</v>
+        <v>5.439562208516153</v>
       </c>
       <c r="E6">
-        <v>13.45957559886175</v>
+        <v>9.352792098568409</v>
       </c>
       <c r="F6">
-        <v>33.43734307526295</v>
+        <v>31.01592056669674</v>
       </c>
       <c r="G6">
-        <v>3.630062034442503</v>
+        <v>2.036877949835367</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.858164225332509</v>
+        <v>6.209208444451198</v>
       </c>
       <c r="O6">
-        <v>25.06042215919873</v>
+        <v>22.56961067760954</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -551,25 +551,25 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>9.069660329893461</v>
+        <v>5.461302795451077</v>
       </c>
       <c r="E7">
-        <v>13.46392150404267</v>
+        <v>9.458447689027043</v>
       </c>
       <c r="F7">
-        <v>33.54270453687657</v>
+        <v>31.62555187361007</v>
       </c>
       <c r="G7">
-        <v>3.628973190948789</v>
+        <v>2.03404638640001</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.855778811462393</v>
+        <v>6.252495505254445</v>
       </c>
       <c r="O7">
-        <v>25.13005671365274</v>
+        <v>22.99935089068953</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -577,25 +577,25 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>9.05603748192066</v>
+        <v>5.562987681448321</v>
       </c>
       <c r="E8">
-        <v>13.48960515884913</v>
+        <v>9.928151203337533</v>
       </c>
       <c r="F8">
-        <v>34.02582672660022</v>
+        <v>34.24773576282917</v>
       </c>
       <c r="G8">
-        <v>3.624416804934584</v>
+        <v>2.021880268192542</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.849247038929464</v>
+        <v>6.450297238287322</v>
       </c>
       <c r="O8">
-        <v>25.45115907981998</v>
+        <v>24.8521050862057</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -603,25 +603,25 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>9.039735604397226</v>
+        <v>5.783284541258827</v>
       </c>
       <c r="E9">
-        <v>13.56317490237909</v>
+        <v>10.85613478473569</v>
       </c>
       <c r="F9">
-        <v>35.03149178840453</v>
+        <v>39.12388785238254</v>
       </c>
       <c r="G9">
-        <v>3.616367576087087</v>
+        <v>1.999053524485821</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.850798242082538</v>
+        <v>6.861777300057992</v>
       </c>
       <c r="O9">
-        <v>26.12609398011729</v>
+        <v>28.31229539490927</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -629,25 +629,25 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>9.034100795024408</v>
+        <v>5.958160215963529</v>
       </c>
       <c r="E10">
-        <v>13.63116400232298</v>
+        <v>11.53867178038664</v>
       </c>
       <c r="F10">
-        <v>35.79921196626661</v>
+        <v>42.5602620068137</v>
       </c>
       <c r="G10">
-        <v>3.610987116409229</v>
+        <v>1.982749165550131</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.860684287964897</v>
+        <v>7.178111463294486</v>
       </c>
       <c r="O10">
-        <v>26.64535503308258</v>
+        <v>30.97798833172131</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -655,25 +655,25 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>9.03291216000437</v>
+        <v>6.040636439145121</v>
       </c>
       <c r="E11">
-        <v>13.66506339699854</v>
+        <v>11.84899245098896</v>
       </c>
       <c r="F11">
-        <v>36.1532782404719</v>
+        <v>44.17441385587464</v>
       </c>
       <c r="G11">
-        <v>3.608653775659333</v>
+        <v>1.975391994160087</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.867075651012993</v>
+        <v>7.325103906664331</v>
       </c>
       <c r="O11">
-        <v>26.88572683328334</v>
+        <v>32.19051817899655</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -681,25 +681,25 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>9.032659395609095</v>
+        <v>6.072299201332827</v>
       </c>
       <c r="E12">
-        <v>13.67832158929044</v>
+        <v>11.96647735291011</v>
       </c>
       <c r="F12">
-        <v>36.28792533965274</v>
+        <v>44.77886327777875</v>
       </c>
       <c r="G12">
-        <v>3.607786520170719</v>
+        <v>1.972610704587573</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.869767470888247</v>
+        <v>7.381223633050145</v>
       </c>
       <c r="O12">
-        <v>26.97726771910311</v>
+        <v>32.64403066042646</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -707,25 +707,25 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>9.032705061912399</v>
+        <v>6.065460696637678</v>
       </c>
       <c r="E13">
-        <v>13.67544756740461</v>
+        <v>11.94117585996857</v>
       </c>
       <c r="F13">
-        <v>36.25890330013041</v>
+        <v>44.64898053517223</v>
       </c>
       <c r="G13">
-        <v>3.607972574463286</v>
+        <v>1.973209562596005</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.869175677268132</v>
+        <v>7.369116621920885</v>
       </c>
       <c r="O13">
-        <v>26.95753102762606</v>
+        <v>32.54660438422957</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -733,25 +733,25 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>9.032887411950668</v>
+        <v>6.043232648078798</v>
       </c>
       <c r="E14">
-        <v>13.66614575069772</v>
+        <v>11.85865847319022</v>
       </c>
       <c r="F14">
-        <v>36.1643450253973</v>
+        <v>44.22427633958407</v>
       </c>
       <c r="G14">
-        <v>3.608582099321673</v>
+        <v>1.975163105347377</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.867291671810767</v>
+        <v>7.329711647399783</v>
       </c>
       <c r="O14">
-        <v>26.89324805125596</v>
+        <v>32.227940169646</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -759,25 +759,25 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <v>9.033024795923772</v>
+        <v>6.029673795463373</v>
       </c>
       <c r="E15">
-        <v>13.66050278847523</v>
+        <v>11.80811102267503</v>
       </c>
       <c r="F15">
-        <v>36.10649589555681</v>
+        <v>43.9632586845315</v>
       </c>
       <c r="G15">
-        <v>3.60895757458505</v>
+        <v>1.976360196754639</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.866173000034957</v>
+        <v>7.305634998338653</v>
       </c>
       <c r="O15">
-        <v>26.85393784757931</v>
+        <v>32.03202365751716</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -785,25 +785,25 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>9.034206110330613</v>
+        <v>5.95282984873445</v>
       </c>
       <c r="E16">
-        <v>13.62900788030516</v>
+        <v>11.51838745774567</v>
       </c>
       <c r="F16">
-        <v>35.77615939628461</v>
+        <v>42.45380350123707</v>
       </c>
       <c r="G16">
-        <v>3.611141896301158</v>
+        <v>1.983230855533284</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.860304646131771</v>
+        <v>7.168568199027763</v>
       </c>
       <c r="O16">
-        <v>26.62972294951099</v>
+        <v>30.89793902842201</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -811,25 +811,25 @@
         <v>15</v>
       </c>
       <c r="D17">
-        <v>9.035282680972772</v>
+        <v>5.906443860560208</v>
       </c>
       <c r="E17">
-        <v>13.6104436073156</v>
+        <v>11.34059919135284</v>
       </c>
       <c r="F17">
-        <v>35.57465633020652</v>
+        <v>41.55801237907848</v>
       </c>
       <c r="G17">
-        <v>3.612511099625995</v>
+        <v>1.987458473638782</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.85718921014708</v>
+        <v>7.085279630416141</v>
       </c>
       <c r="O17">
-        <v>26.49318197498341</v>
+        <v>30.19182198273183</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -837,25 +837,25 @@
         <v>16</v>
       </c>
       <c r="D18">
-        <v>9.036031310257808</v>
+        <v>5.880038333278708</v>
       </c>
       <c r="E18">
-        <v>13.60004595055619</v>
+        <v>11.23832296704864</v>
       </c>
       <c r="F18">
-        <v>35.45921881065974</v>
+        <v>41.04918656822797</v>
       </c>
       <c r="G18">
-        <v>3.613309389561933</v>
+        <v>1.989895971672458</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.855575641806704</v>
+        <v>7.037663861899148</v>
       </c>
       <c r="O18">
-        <v>26.41504338001172</v>
+        <v>29.78177060295231</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -863,25 +863,25 @@
         <v>17</v>
       </c>
       <c r="D19">
-        <v>9.036307019224624</v>
+        <v>5.871144756356699</v>
       </c>
       <c r="E19">
-        <v>13.59657374906443</v>
+        <v>11.20369150526938</v>
       </c>
       <c r="F19">
-        <v>35.42021674247751</v>
+        <v>40.87631547782049</v>
       </c>
       <c r="G19">
-        <v>3.613581527980637</v>
+        <v>1.990722387846927</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.855059968827739</v>
+        <v>7.021591495120252</v>
       </c>
       <c r="O19">
-        <v>26.38865748438569</v>
+        <v>29.64225434601349</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -889,25 +889,25 @@
         <v>18</v>
       </c>
       <c r="D20">
-        <v>9.035154686480707</v>
+        <v>5.911353258378611</v>
       </c>
       <c r="E20">
-        <v>13.61239086607601</v>
+        <v>11.35952691864265</v>
       </c>
       <c r="F20">
-        <v>35.59605979171576</v>
+        <v>41.65190454903219</v>
       </c>
       <c r="G20">
-        <v>3.612364232665131</v>
+        <v>1.987007854120809</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.857502400698968</v>
+        <v>7.094115806841099</v>
       </c>
       <c r="O20">
-        <v>26.50767657635952</v>
+        <v>30.26739221130739</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -915,25 +915,25 @@
         <v>19</v>
       </c>
       <c r="D21">
-        <v>9.032828498380541</v>
+        <v>6.049749773184524</v>
       </c>
       <c r="E21">
-        <v>13.66886653821913</v>
+        <v>11.88289646170877</v>
       </c>
       <c r="F21">
-        <v>36.19210460187967</v>
+        <v>44.34920372612574</v>
       </c>
       <c r="G21">
-        <v>3.60840262469864</v>
+        <v>1.974589207987848</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.86783768764054</v>
+        <v>7.341273295901988</v>
       </c>
       <c r="O21">
-        <v>26.91211612260948</v>
+        <v>32.32169014864979</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -941,25 +941,25 @@
         <v>20</v>
       </c>
       <c r="D22">
-        <v>9.032458281489083</v>
+        <v>6.142718480573726</v>
       </c>
       <c r="E22">
-        <v>13.70822871588961</v>
+        <v>12.22480831633344</v>
       </c>
       <c r="F22">
-        <v>36.58491920749571</v>
+        <v>46.09629885231931</v>
       </c>
       <c r="G22">
-        <v>3.6059086225994</v>
+        <v>1.966498197709342</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.876174675601836</v>
+        <v>7.505481212838304</v>
       </c>
       <c r="O22">
-        <v>27.17941864542273</v>
+        <v>33.63156322981374</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -967,25 +967,25 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>9.03255076728813</v>
+        <v>6.092864511710788</v>
       </c>
       <c r="E23">
-        <v>13.68699813834027</v>
+        <v>12.04233105620553</v>
       </c>
       <c r="F23">
-        <v>36.37500870070382</v>
+        <v>45.16731869163904</v>
       </c>
       <c r="G23">
-        <v>3.607231046284066</v>
+        <v>1.970815622323557</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.871580611595846</v>
+        <v>7.417588721244274</v>
       </c>
       <c r="O23">
-        <v>27.0365083911839</v>
+        <v>32.9353401729578</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -993,25 +993,25 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>9.035212148792517</v>
+        <v>5.909132903045291</v>
       </c>
       <c r="E24">
-        <v>13.61150965277872</v>
+        <v>11.35096989004881</v>
       </c>
       <c r="F24">
-        <v>35.58638200237991</v>
+        <v>41.60946727808903</v>
       </c>
       <c r="G24">
-        <v>3.612430596582852</v>
+        <v>1.98721155716418</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.85736025418865</v>
+        <v>7.090120137712977</v>
       </c>
       <c r="O24">
-        <v>26.50112243756121</v>
+        <v>30.23323968857016</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1019,25 +1019,25 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>9.043031288583045</v>
+        <v>5.72142564135033</v>
       </c>
       <c r="E25">
-        <v>13.54080724258624</v>
+        <v>10.60477481626619</v>
       </c>
       <c r="F25">
-        <v>34.75387368245422</v>
+        <v>37.83445787832181</v>
       </c>
       <c r="G25">
-        <v>3.618450967720438</v>
+        <v>2.005134106320834</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.848841359131448</v>
+        <v>6.747989500648903</v>
       </c>
       <c r="O25">
-        <v>25.93908695842777</v>
+        <v>27.39571020213855</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_47/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,629 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>10.07110706553419</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
       <c r="D2">
-        <v>5.591944140733509</v>
+        <v>6.0336318106058</v>
       </c>
       <c r="E2">
-        <v>10.05605031166835</v>
+        <v>12.45719518852095</v>
       </c>
       <c r="F2">
-        <v>34.94076780113593</v>
+        <v>54.49114757387488</v>
       </c>
       <c r="G2">
-        <v>2.018659076075654</v>
+        <v>81.44782168362238</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>4.511744599912937</v>
+      </c>
+      <c r="I2">
+        <v>3.396233145278542</v>
       </c>
       <c r="J2">
-        <v>6.505510476629651</v>
+        <v>20.88633083654355</v>
+      </c>
+      <c r="K2">
+        <v>17.48601896642171</v>
+      </c>
+      <c r="L2">
+        <v>9.257633889657189</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>25.34282081938646</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>18.02349849634121</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>9.469452693691666</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
       <c r="D3">
-        <v>5.509542254810748</v>
+        <v>5.841119063564468</v>
       </c>
       <c r="E3">
-        <v>9.685745810263834</v>
+        <v>11.86258063453523</v>
       </c>
       <c r="F3">
-        <v>32.91094010534451</v>
+        <v>51.11053819783622</v>
       </c>
       <c r="G3">
-        <v>2.028083600574575</v>
+        <v>76.0158654013306</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3.982746675156852</v>
+      </c>
+      <c r="I3">
+        <v>3.449856778822138</v>
       </c>
       <c r="J3">
-        <v>6.347183537701402</v>
+        <v>19.70756362132348</v>
+      </c>
+      <c r="K3">
+        <v>17.06054510568831</v>
+      </c>
+      <c r="L3">
+        <v>8.856917413798454</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>23.90674037345182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>17.39752452283048</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>9.074400525888834</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
       <c r="D4">
-        <v>5.46156031993394</v>
+        <v>5.721915120190927</v>
       </c>
       <c r="E4">
-        <v>9.459686194417158</v>
+        <v>11.48825865609372</v>
       </c>
       <c r="F4">
-        <v>31.63264957697417</v>
+        <v>48.95542313507377</v>
       </c>
       <c r="G4">
-        <v>2.034013440218957</v>
+        <v>72.53811391479992</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.651753795505827</v>
+      </c>
+      <c r="I4">
+        <v>3.484513120417371</v>
       </c>
       <c r="J4">
-        <v>6.253005771586771</v>
+        <v>18.96159935765115</v>
+      </c>
+      <c r="K4">
+        <v>16.80412706202267</v>
+      </c>
+      <c r="L4">
+        <v>8.604290850449086</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>23.00435661755816</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>17.00656483005289</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>8.895136084129939</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
       <c r="D5">
-        <v>5.442661042716728</v>
+        <v>5.673005681100513</v>
       </c>
       <c r="E5">
-        <v>9.367989606335184</v>
+        <v>11.33330890265677</v>
       </c>
       <c r="F5">
-        <v>31.10412603552633</v>
+        <v>48.05736654824948</v>
       </c>
       <c r="G5">
-        <v>2.036468009631653</v>
+        <v>71.08491113668136</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.515154892271795</v>
+      </c>
+      <c r="I5">
+        <v>3.501824924584614</v>
       </c>
       <c r="J5">
-        <v>6.215404718613532</v>
+        <v>18.65216225538266</v>
+      </c>
+      <c r="K5">
+        <v>16.71490464977857</v>
+      </c>
+      <c r="L5">
+        <v>8.499659779930706</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>22.63176236976199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>16.85386873519077</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>8.85045053723379</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
       <c r="D6">
-        <v>5.439562208516153</v>
+        <v>5.664861982854327</v>
       </c>
       <c r="E6">
-        <v>9.352792098568409</v>
+        <v>11.3074317845765</v>
       </c>
       <c r="F6">
-        <v>31.01592056669674</v>
+        <v>47.90705444377842</v>
       </c>
       <c r="G6">
-        <v>2.036877949835367</v>
+        <v>70.84143357964606</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.4923646352296</v>
+      </c>
+      <c r="I6">
+        <v>3.50824669828024</v>
       </c>
       <c r="J6">
-        <v>6.209208444451198</v>
+        <v>18.60045636338048</v>
+      </c>
+      <c r="K6">
+        <v>16.71724178558905</v>
+      </c>
+      <c r="L6">
+        <v>8.482183624109849</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>22.56961067760954</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>16.8383080947413</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>9.033205367801353</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
       <c r="D7">
-        <v>5.461302795451077</v>
+        <v>5.721256959551653</v>
       </c>
       <c r="E7">
-        <v>9.458447689027043</v>
+        <v>11.48617881387125</v>
       </c>
       <c r="F7">
-        <v>31.62555187361007</v>
+        <v>48.94339162029991</v>
       </c>
       <c r="G7">
-        <v>2.03404638640001</v>
+        <v>72.51866129784936</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.649918727834669</v>
+      </c>
+      <c r="I7">
+        <v>3.4939998629078</v>
       </c>
       <c r="J7">
-        <v>6.252495505254445</v>
+        <v>18.95744802908814</v>
+      </c>
+      <c r="K7">
+        <v>16.84935607878382</v>
+      </c>
+      <c r="L7">
+        <v>8.602886603490191</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>22.99935089068953</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>17.03128100020918</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>9.8214411732454</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
       <c r="D8">
-        <v>5.562987681448321</v>
+        <v>5.967409301252832</v>
       </c>
       <c r="E8">
-        <v>9.928151203337533</v>
+        <v>12.2540256305992</v>
       </c>
       <c r="F8">
-        <v>34.24773576282917</v>
+        <v>53.3420276468069</v>
       </c>
       <c r="G8">
-        <v>2.021880268192542</v>
+        <v>79.60430402229545</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>4.330528202095994</v>
+      </c>
+      <c r="I8">
+        <v>3.425855209441119</v>
       </c>
       <c r="J8">
-        <v>6.450297238287322</v>
+        <v>20.48455693469681</v>
+      </c>
+      <c r="K8">
+        <v>17.39898570124812</v>
+      </c>
+      <c r="L8">
+        <v>9.120812432148414</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>24.8521050862057</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>17.84361598522131</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>11.22430155173016</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
       <c r="D9">
-        <v>5.783284541258827</v>
+        <v>6.446365405416701</v>
       </c>
       <c r="E9">
-        <v>10.85613478473569</v>
+        <v>13.69190952925949</v>
       </c>
       <c r="F9">
-        <v>39.12388785238254</v>
+        <v>61.33997749601055</v>
       </c>
       <c r="G9">
-        <v>1.999053524485821</v>
+        <v>92.38621881127142</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>5.624286674011819</v>
+      </c>
+      <c r="I9">
+        <v>3.291096979831379</v>
       </c>
       <c r="J9">
-        <v>6.861777300057992</v>
+        <v>23.30079149466326</v>
+      </c>
+      <c r="K9">
+        <v>18.42736281912078</v>
+      </c>
+      <c r="L9">
+        <v>10.08627410922791</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>28.31229539490927</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>19.32919111101101</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>12.11325039933709</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
       <c r="D10">
-        <v>5.958160215963529</v>
+        <v>6.803144164709853</v>
       </c>
       <c r="E10">
-        <v>11.53867178038664</v>
+        <v>14.5452156199504</v>
       </c>
       <c r="F10">
-        <v>42.5602620068137</v>
+        <v>66.43733884443405</v>
       </c>
       <c r="G10">
-        <v>1.982749165550131</v>
+        <v>100.5713312543335</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>6.520486226551851</v>
+      </c>
+      <c r="I10">
+        <v>3.205139096464397</v>
       </c>
       <c r="J10">
-        <v>7.178111463294486</v>
+        <v>25.14283281360645</v>
+      </c>
+      <c r="K10">
+        <v>19.21661773433165</v>
+      </c>
+      <c r="L10">
+        <v>10.64703567571089</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>30.97798833172131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>20.38503186288384</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>12.44442528350938</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
       <c r="D11">
-        <v>6.040636439145121</v>
+        <v>6.99623226459226</v>
       </c>
       <c r="E11">
-        <v>11.84899245098896</v>
+        <v>13.55988446741442</v>
       </c>
       <c r="F11">
-        <v>44.17441385587464</v>
+        <v>65.15385032275182</v>
       </c>
       <c r="G11">
-        <v>1.975391994160087</v>
+        <v>99.31727089358397</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>6.887005616153343</v>
+      </c>
+      <c r="I11">
+        <v>3.182562769594171</v>
       </c>
       <c r="J11">
-        <v>7.325103906664331</v>
+        <v>24.82757192770724</v>
+      </c>
+      <c r="K11">
+        <v>19.64575859545614</v>
+      </c>
+      <c r="L11">
+        <v>9.892391561730589</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>32.19051817899655</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>20.8908094738986</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>12.59132373127669</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
       <c r="D12">
-        <v>6.072299201332827</v>
+        <v>7.116122087987866</v>
       </c>
       <c r="E12">
-        <v>11.96647735291011</v>
+        <v>12.70425112938606</v>
       </c>
       <c r="F12">
-        <v>44.77886327777875</v>
+        <v>62.98091797081726</v>
       </c>
       <c r="G12">
-        <v>1.972610704587573</v>
+        <v>96.53189335517416</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>7.421667246624033</v>
+      </c>
+      <c r="I12">
+        <v>3.166611828530131</v>
       </c>
       <c r="J12">
-        <v>7.381223633050145</v>
+        <v>24.12937536672603</v>
+      </c>
+      <c r="K12">
+        <v>19.7709535715944</v>
+      </c>
+      <c r="L12">
+        <v>9.205027967560756</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>32.64403066042646</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>21.05996035377492</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>12.56482301546106</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
       <c r="D13">
-        <v>6.065460696637678</v>
+        <v>7.184401081924621</v>
       </c>
       <c r="E13">
-        <v>11.94117585996857</v>
+        <v>11.91032197587424</v>
       </c>
       <c r="F13">
-        <v>44.64898053517223</v>
+        <v>59.93278112609891</v>
       </c>
       <c r="G13">
-        <v>1.973209562596005</v>
+        <v>92.30619036836721</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>8.0726330022752</v>
+      </c>
+      <c r="I13">
+        <v>3.168420907564584</v>
       </c>
       <c r="J13">
-        <v>7.369116621920885</v>
+        <v>23.07715132051928</v>
+      </c>
+      <c r="K13">
+        <v>19.73657323380093</v>
+      </c>
+      <c r="L13">
+        <v>8.533694455911748</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>32.54660438422957</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>21.01956538536927</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>12.45871425227807</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
       <c r="D14">
-        <v>6.043232648078798</v>
+        <v>7.212970669960822</v>
       </c>
       <c r="E14">
-        <v>11.85865847319022</v>
+        <v>11.4240126919703</v>
       </c>
       <c r="F14">
-        <v>44.22427633958407</v>
+        <v>57.3691010606543</v>
       </c>
       <c r="G14">
-        <v>1.975163105347377</v>
+        <v>88.64789497099534</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>8.607103601552602</v>
+      </c>
+      <c r="I14">
+        <v>3.180552969947198</v>
       </c>
       <c r="J14">
-        <v>7.329711647399783</v>
+        <v>22.21618242857577</v>
+      </c>
+      <c r="K14">
+        <v>19.65289514745</v>
+      </c>
+      <c r="L14">
+        <v>8.091903831612532</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>32.227940169646</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>20.90303475251685</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>12.3832809350628</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
       <c r="D15">
-        <v>6.029673795463373</v>
+        <v>7.204975768881465</v>
       </c>
       <c r="E15">
-        <v>11.80811102267503</v>
+        <v>11.29734728574218</v>
       </c>
       <c r="F15">
-        <v>43.9632586845315</v>
+        <v>56.55286174579325</v>
       </c>
       <c r="G15">
-        <v>1.976360196754639</v>
+        <v>87.44203037921919</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>8.717235684883761</v>
+      </c>
+      <c r="I15">
+        <v>3.191289070314182</v>
       </c>
       <c r="J15">
-        <v>7.305634998338653</v>
+        <v>21.93727745001044</v>
+      </c>
+      <c r="K15">
+        <v>19.61636156342747</v>
+      </c>
+      <c r="L15">
+        <v>7.978845406781857</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>32.03202365751716</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>20.83946207583682</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>12.00548046839704</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
       <c r="D16">
-        <v>5.95282984873445</v>
+        <v>7.038077634112515</v>
       </c>
       <c r="E16">
-        <v>11.51838745774567</v>
+        <v>11.05543647810781</v>
       </c>
       <c r="F16">
-        <v>42.45380350123707</v>
+        <v>54.85009154271341</v>
       </c>
       <c r="G16">
-        <v>1.983230855533284</v>
+        <v>84.60447147099541</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>8.310732539401775</v>
+      </c>
+      <c r="I16">
+        <v>3.232952879941736</v>
       </c>
       <c r="J16">
-        <v>7.168568199027763</v>
+        <v>21.31863842690874</v>
+      </c>
+      <c r="K16">
+        <v>19.31373552454702</v>
+      </c>
+      <c r="L16">
+        <v>7.853518331201916</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>30.89793902842201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>20.42046714942446</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>11.76658581855816</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
       <c r="D17">
-        <v>5.906443860560208</v>
+        <v>6.890994567476147</v>
       </c>
       <c r="E17">
-        <v>11.34059919135284</v>
+        <v>11.10873582994215</v>
       </c>
       <c r="F17">
-        <v>41.55801237907848</v>
+        <v>54.9521273442332</v>
       </c>
       <c r="G17">
-        <v>1.987458473638782</v>
+        <v>84.42989024679652</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>7.652876284719961</v>
+      </c>
+      <c r="I17">
+        <v>3.259104488955878</v>
       </c>
       <c r="J17">
-        <v>7.085279630416141</v>
+        <v>21.31571138412266</v>
+      </c>
+      <c r="K17">
+        <v>19.12799693385065</v>
+      </c>
+      <c r="L17">
+        <v>7.983629020475923</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>30.19182198273183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>20.16011624078777</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>11.65328601419816</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
       <c r="D18">
-        <v>5.880038333278708</v>
+        <v>6.758068310867441</v>
       </c>
       <c r="E18">
-        <v>11.23832296704864</v>
+        <v>11.54498188092307</v>
       </c>
       <c r="F18">
-        <v>41.04918656822797</v>
+        <v>56.62949623767408</v>
       </c>
       <c r="G18">
-        <v>1.989895971672458</v>
+        <v>86.55420101420601</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>6.813776612364489</v>
+      </c>
+      <c r="I18">
+        <v>3.265565125593841</v>
       </c>
       <c r="J18">
-        <v>7.037663861899148</v>
+        <v>21.84404526454932</v>
+      </c>
+      <c r="K18">
+        <v>18.98269070578931</v>
+      </c>
+      <c r="L18">
+        <v>8.408802809621069</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>29.78177060295231</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>19.98799054081196</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>11.59390822762416</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
       <c r="D19">
-        <v>5.871144756356699</v>
+        <v>6.669568905450439</v>
       </c>
       <c r="E19">
-        <v>11.20369150526938</v>
+        <v>12.41337630932513</v>
       </c>
       <c r="F19">
-        <v>40.87631547782049</v>
+        <v>59.41971075806387</v>
       </c>
       <c r="G19">
-        <v>1.990722387846927</v>
+        <v>90.33508203544234</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>6.159344924407815</v>
+      </c>
+      <c r="I19">
+        <v>3.274500571847978</v>
       </c>
       <c r="J19">
-        <v>7.021591495120252</v>
+        <v>22.75062664998805</v>
+      </c>
+      <c r="K19">
+        <v>18.96313639254054</v>
+      </c>
+      <c r="L19">
+        <v>9.113037096256182</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>29.64225434601349</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>19.94584405607849</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>11.79435977111336</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
       <c r="D20">
-        <v>5.911353258378611</v>
+        <v>6.70875573128245</v>
       </c>
       <c r="E20">
-        <v>11.35952691864265</v>
+        <v>14.31405374284889</v>
       </c>
       <c r="F20">
-        <v>41.65190454903219</v>
+        <v>65.10134093068336</v>
       </c>
       <c r="G20">
-        <v>1.987007854120809</v>
+        <v>98.43318866966997</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>6.28297509503837</v>
+      </c>
+      <c r="I20">
+        <v>3.255602238595072</v>
       </c>
       <c r="J20">
-        <v>7.094115806841099</v>
+        <v>24.64828222076784</v>
+      </c>
+      <c r="K20">
+        <v>19.1447641825374</v>
+      </c>
+      <c r="L20">
+        <v>10.49527877753493</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>30.26739221130739</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>20.18630080696025</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>12.46205295727276</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
       <c r="D21">
-        <v>6.049749773184524</v>
+        <v>6.985915161552136</v>
       </c>
       <c r="E21">
-        <v>11.88289646170877</v>
+        <v>15.22891637938874</v>
       </c>
       <c r="F21">
-        <v>44.34920372612574</v>
+        <v>69.54391405210019</v>
       </c>
       <c r="G21">
-        <v>1.974589207987848</v>
+        <v>105.4282540388841</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>7.037636624092339</v>
+      </c>
+      <c r="I21">
+        <v>3.186301592984643</v>
       </c>
       <c r="J21">
-        <v>7.341273295901988</v>
+        <v>26.35274133423468</v>
+      </c>
+      <c r="K21">
+        <v>19.71918307887109</v>
+      </c>
+      <c r="L21">
+        <v>11.10877520090683</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>32.32169014864979</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>20.96009581783553</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>12.91058206277683</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
       <c r="D22">
-        <v>6.142718480573726</v>
+        <v>7.170827225695609</v>
       </c>
       <c r="E22">
-        <v>12.22480831633344</v>
+        <v>15.73707752937601</v>
       </c>
       <c r="F22">
-        <v>46.09629885231931</v>
+        <v>72.17892970731032</v>
       </c>
       <c r="G22">
-        <v>1.966498197709342</v>
+        <v>109.6295163460941</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>7.511906727044937</v>
+      </c>
+      <c r="I22">
+        <v>3.13098958715346</v>
       </c>
       <c r="J22">
-        <v>7.505481212838304</v>
+        <v>27.39563108011149</v>
+      </c>
+      <c r="K22">
+        <v>20.04096143671379</v>
+      </c>
+      <c r="L22">
+        <v>11.44417313170412</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>33.63156322981374</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>21.4256041694121</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>12.70666215948073</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
       <c r="D23">
-        <v>6.092864511710788</v>
+        <v>7.071736274683686</v>
       </c>
       <c r="E23">
-        <v>12.04233105620553</v>
+        <v>15.46589243627447</v>
       </c>
       <c r="F23">
-        <v>45.16731869163904</v>
+        <v>70.77746641780504</v>
       </c>
       <c r="G23">
-        <v>1.970815622323557</v>
+        <v>107.3957689936457</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>7.258380688503022</v>
+      </c>
+      <c r="I23">
+        <v>3.149482364065691</v>
       </c>
       <c r="J23">
-        <v>7.417588721244274</v>
+        <v>26.84109818239774</v>
+      </c>
+      <c r="K23">
+        <v>19.81931143575137</v>
+      </c>
+      <c r="L23">
+        <v>11.265362003261</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>32.9353401729578</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>21.15093689908221</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>11.83770894768115</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
       <c r="D24">
-        <v>5.909132903045291</v>
+        <v>6.703990601407009</v>
       </c>
       <c r="E24">
-        <v>11.35096989004881</v>
+        <v>14.43621713443277</v>
       </c>
       <c r="F24">
-        <v>41.60946727808903</v>
+        <v>65.35700783305954</v>
       </c>
       <c r="G24">
-        <v>1.98721155716418</v>
+        <v>98.77190545384764</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>6.304721781174255</v>
+      </c>
+      <c r="I24">
+        <v>3.239445799535519</v>
       </c>
       <c r="J24">
-        <v>7.090120137712977</v>
+        <v>24.73020244758283</v>
+      </c>
+      <c r="K24">
+        <v>19.05624324689398</v>
+      </c>
+      <c r="L24">
+        <v>10.58284651513448</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>30.23323968857016</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>20.12991125324822</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>10.80811354696444</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
       <c r="D25">
-        <v>5.72142564135033</v>
+        <v>6.316554693561287</v>
       </c>
       <c r="E25">
-        <v>10.60477481626619</v>
+        <v>13.30932352666903</v>
       </c>
       <c r="F25">
-        <v>37.83445787832181</v>
+        <v>59.24257166205835</v>
       </c>
       <c r="G25">
-        <v>2.005134106320834</v>
+        <v>89.04421273818109</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>5.277429829038457</v>
+      </c>
+      <c r="I25">
+        <v>3.34203145623355</v>
       </c>
       <c r="J25">
-        <v>6.747989500648903</v>
+        <v>22.5580835308097</v>
+      </c>
+      <c r="K25">
+        <v>18.22730289418022</v>
+      </c>
+      <c r="L25">
+        <v>9.830104983253845</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>27.39571020213855</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>18.98009393091337</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_47/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.07110706553419</v>
+        <v>11.33443547383995</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.0336318106058</v>
+        <v>5.715663655767267</v>
       </c>
       <c r="E2">
-        <v>12.45719518852095</v>
+        <v>12.1465678224339</v>
       </c>
       <c r="F2">
-        <v>54.49114757387488</v>
+        <v>54.44687070513162</v>
       </c>
       <c r="G2">
-        <v>81.44782168362238</v>
+        <v>81.07700073456409</v>
       </c>
       <c r="H2">
-        <v>4.511744599912937</v>
+        <v>4.265748801734199</v>
       </c>
       <c r="I2">
-        <v>3.396233145278542</v>
+        <v>3.117426566250362</v>
       </c>
       <c r="J2">
-        <v>20.88633083654355</v>
+        <v>21.40297770224928</v>
       </c>
       <c r="K2">
-        <v>17.48601896642171</v>
+        <v>15.45664475526999</v>
       </c>
       <c r="L2">
-        <v>9.257633889657189</v>
+        <v>11.73430255697955</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.22675008896474</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>9.142297129928039</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>18.02349849634121</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>16.952544427668</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.469452693691666</v>
+        <v>10.67437641196759</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.841119063564468</v>
+        <v>5.558741438618064</v>
       </c>
       <c r="E3">
-        <v>11.86258063453523</v>
+        <v>11.58531412678838</v>
       </c>
       <c r="F3">
-        <v>51.11053819783622</v>
+        <v>51.11450593136846</v>
       </c>
       <c r="G3">
-        <v>76.0158654013306</v>
+        <v>75.66181761314333</v>
       </c>
       <c r="H3">
-        <v>3.982746675156852</v>
+        <v>3.766360533428083</v>
       </c>
       <c r="I3">
-        <v>3.449856778822138</v>
+        <v>3.161742741971353</v>
       </c>
       <c r="J3">
-        <v>19.70756362132348</v>
+        <v>20.24667442915828</v>
       </c>
       <c r="K3">
-        <v>17.06054510568831</v>
+        <v>15.13648485297595</v>
       </c>
       <c r="L3">
-        <v>8.856917413798454</v>
+        <v>11.33480187017003</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.17347406423672</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>8.754974675768031</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>17.39752452283048</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>16.38364140137059</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.074400525888834</v>
+        <v>10.24008889278063</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.721915120190927</v>
+        <v>5.461482822389703</v>
       </c>
       <c r="E4">
-        <v>11.48825865609372</v>
+        <v>11.23150092832295</v>
       </c>
       <c r="F4">
-        <v>48.95542313507377</v>
+        <v>48.98595374470693</v>
       </c>
       <c r="G4">
-        <v>72.53811391479992</v>
+        <v>72.19422270026914</v>
       </c>
       <c r="H4">
-        <v>3.651753795505827</v>
+        <v>3.453342865256157</v>
       </c>
       <c r="I4">
-        <v>3.484513120417371</v>
+        <v>3.19073424403769</v>
       </c>
       <c r="J4">
-        <v>18.96159935765115</v>
+        <v>19.5093498333815</v>
       </c>
       <c r="K4">
-        <v>16.80412706202267</v>
+        <v>14.94804894039257</v>
       </c>
       <c r="L4">
-        <v>8.604290850449086</v>
+        <v>11.11139743915352</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.14480731849372</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>8.510467813199426</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>17.00656483005289</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>16.03023769248815</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.895136084129939</v>
+        <v>10.04502259285802</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.673005681100513</v>
+        <v>5.421557695885632</v>
       </c>
       <c r="E5">
-        <v>11.33330890265677</v>
+        <v>11.08494197034718</v>
       </c>
       <c r="F5">
-        <v>48.05736654824948</v>
+        <v>48.09801957548905</v>
       </c>
       <c r="G5">
-        <v>71.08491113668136</v>
+        <v>70.74519158902733</v>
       </c>
       <c r="H5">
-        <v>3.515154892271795</v>
+        <v>3.324041828642177</v>
       </c>
       <c r="I5">
-        <v>3.501824924584614</v>
+        <v>3.206280624753819</v>
       </c>
       <c r="J5">
-        <v>18.65216225538266</v>
+        <v>19.20216902704923</v>
       </c>
       <c r="K5">
-        <v>16.71490464977857</v>
+        <v>14.88392074227668</v>
       </c>
       <c r="L5">
-        <v>8.499659779930706</v>
+        <v>11.03172862259723</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.14431456378574</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>8.409132960066241</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>16.85386873519077</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>15.89214965439244</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.85045053723379</v>
+        <v>9.998986371700118</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.664861982854327</v>
+        <v>5.414908827081131</v>
       </c>
       <c r="E6">
-        <v>11.3074317845765</v>
+        <v>11.06046087939628</v>
       </c>
       <c r="F6">
-        <v>47.90705444377842</v>
+        <v>47.94934761796134</v>
       </c>
       <c r="G6">
-        <v>70.84143357964606</v>
+        <v>70.50241064044143</v>
       </c>
       <c r="H6">
-        <v>3.4923646352296</v>
+        <v>3.302462391506339</v>
       </c>
       <c r="I6">
-        <v>3.50824669828024</v>
+        <v>3.213110100447941</v>
       </c>
       <c r="J6">
-        <v>18.60045636338048</v>
+        <v>19.15076210378366</v>
       </c>
       <c r="K6">
-        <v>16.71724178558905</v>
+        <v>14.88629518822669</v>
       </c>
       <c r="L6">
-        <v>8.482183624109849</v>
+        <v>11.02550316067292</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.15676901062655</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>8.392203743473454</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>16.8383080947413</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>15.87742067848476</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.033205367801353</v>
+        <v>10.2022906668204</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.721256959551653</v>
+        <v>5.460845522801699</v>
       </c>
       <c r="E7">
-        <v>11.48617881387125</v>
+        <v>11.2312070636461</v>
       </c>
       <c r="F7">
-        <v>48.94339162029991</v>
+        <v>48.92081535109396</v>
       </c>
       <c r="G7">
-        <v>72.51866129784936</v>
+        <v>72.225744235761</v>
       </c>
       <c r="H7">
-        <v>3.649918727834669</v>
+        <v>3.449662711903712</v>
       </c>
       <c r="I7">
-        <v>3.4939998629078</v>
+        <v>3.202022351382288</v>
       </c>
       <c r="J7">
-        <v>18.95744802908814</v>
+        <v>19.41368972367468</v>
       </c>
       <c r="K7">
-        <v>16.84935607878382</v>
+        <v>14.9825141019642</v>
       </c>
       <c r="L7">
-        <v>8.602886603490191</v>
+        <v>11.12936034717091</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.17833864669133</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>8.507110669662392</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>17.03128100020918</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>16.05079269245918</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.8214411732454</v>
+        <v>11.06992273469197</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.967409301252832</v>
+        <v>5.661573699426021</v>
       </c>
       <c r="E8">
-        <v>12.2540256305992</v>
+        <v>11.96031919186601</v>
       </c>
       <c r="F8">
-        <v>53.3420276468069</v>
+        <v>53.15031559048728</v>
       </c>
       <c r="G8">
-        <v>79.60430402229545</v>
+        <v>79.3949929741988</v>
       </c>
       <c r="H8">
-        <v>4.330528202095994</v>
+        <v>4.088617993967176</v>
       </c>
       <c r="I8">
-        <v>3.425855209441119</v>
+        <v>3.146120994571856</v>
       </c>
       <c r="J8">
-        <v>20.48455693469681</v>
+        <v>20.72426774348355</v>
       </c>
       <c r="K8">
-        <v>17.39898570124812</v>
+        <v>15.39185707209656</v>
       </c>
       <c r="L8">
-        <v>9.120812432148414</v>
+        <v>11.62117259275004</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.24977322143243</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>9.003808272563345</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>17.84361598522131</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>16.78649298987287</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.22430155173016</v>
+        <v>12.59730400110739</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.446365405416701</v>
+        <v>6.051484609194367</v>
       </c>
       <c r="E9">
-        <v>13.69190952925949</v>
+        <v>13.31465465878881</v>
       </c>
       <c r="F9">
-        <v>61.33997749601055</v>
+        <v>60.98444945718883</v>
       </c>
       <c r="G9">
-        <v>92.38621881127142</v>
+        <v>92.14855396950507</v>
       </c>
       <c r="H9">
-        <v>5.624286674011819</v>
+        <v>5.304741825519621</v>
       </c>
       <c r="I9">
-        <v>3.291096979831379</v>
+        <v>3.032867416503618</v>
       </c>
       <c r="J9">
-        <v>23.30079149466326</v>
+        <v>23.41033862740594</v>
       </c>
       <c r="K9">
-        <v>18.42736281912078</v>
+        <v>16.18963793964941</v>
       </c>
       <c r="L9">
-        <v>10.08627410922791</v>
+        <v>12.69532773743878</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.36671964085684</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>9.933363207282341</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>19.32919111101101</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>18.14834002047583</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.11325039933709</v>
+        <v>13.56599911466776</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.803144164709853</v>
+        <v>6.343477018412973</v>
       </c>
       <c r="E10">
-        <v>14.5452156199504</v>
+        <v>14.1106630678176</v>
       </c>
       <c r="F10">
-        <v>66.43733884443405</v>
+        <v>65.70277549271785</v>
       </c>
       <c r="G10">
-        <v>100.5713312543335</v>
+        <v>100.551134384589</v>
       </c>
       <c r="H10">
-        <v>6.520486226551851</v>
+        <v>6.132623017572757</v>
       </c>
       <c r="I10">
-        <v>3.205139096464397</v>
+        <v>2.964091402478095</v>
       </c>
       <c r="J10">
-        <v>25.14283281360645</v>
+        <v>24.68996166618304</v>
       </c>
       <c r="K10">
-        <v>19.21661773433165</v>
+        <v>16.8226376157513</v>
       </c>
       <c r="L10">
-        <v>10.64703567571089</v>
+        <v>13.55994872055725</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>11.48805719315272</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>10.4563316551606</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>20.38503186288384</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>19.12294297302826</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.44442528350938</v>
+        <v>13.93568620781755</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.99623226459226</v>
+        <v>6.51196106043576</v>
       </c>
       <c r="E11">
-        <v>13.55988446741442</v>
+        <v>13.09623549361395</v>
       </c>
       <c r="F11">
-        <v>65.15385032275182</v>
+        <v>63.88954594772434</v>
       </c>
       <c r="G11">
-        <v>99.31727089358397</v>
+        <v>99.81202177667005</v>
       </c>
       <c r="H11">
-        <v>6.887005616153343</v>
+        <v>6.493082609200901</v>
       </c>
       <c r="I11">
-        <v>3.182562769594171</v>
+        <v>2.95273196068179</v>
       </c>
       <c r="J11">
-        <v>24.82757192770724</v>
+        <v>23.39913547917805</v>
       </c>
       <c r="K11">
-        <v>19.64575859545614</v>
+        <v>17.17258607307257</v>
       </c>
       <c r="L11">
-        <v>9.892391561730589</v>
+        <v>14.00335558601386</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.59296957168065</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>9.673568656345836</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>20.8908094738986</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>19.58900611088395</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.59132373127669</v>
+        <v>14.09415587138175</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.116122087987866</v>
+        <v>6.61810108056631</v>
       </c>
       <c r="E12">
-        <v>12.70425112938606</v>
+        <v>12.21739864112134</v>
       </c>
       <c r="F12">
-        <v>62.98091797081726</v>
+        <v>61.49565641728793</v>
       </c>
       <c r="G12">
-        <v>96.53189335517416</v>
+        <v>97.27887912591086</v>
       </c>
       <c r="H12">
-        <v>7.421667246624033</v>
+        <v>7.062233368662738</v>
       </c>
       <c r="I12">
-        <v>3.166611828530131</v>
+        <v>2.93935153542488</v>
       </c>
       <c r="J12">
-        <v>24.12937536672603</v>
+        <v>22.29217096195048</v>
       </c>
       <c r="K12">
-        <v>19.7709535715944</v>
+        <v>17.27508430120864</v>
       </c>
       <c r="L12">
-        <v>9.205027967560756</v>
+        <v>14.14999813473231</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.60884695844003</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>8.977383237973067</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>21.05996035377492</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>19.74628602105408</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.56482301546106</v>
+        <v>14.06465681950815</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.184401081924621</v>
+        <v>6.6926530302331</v>
       </c>
       <c r="E13">
-        <v>11.91032197587424</v>
+        <v>11.40969503211259</v>
       </c>
       <c r="F13">
-        <v>59.93278112609891</v>
+        <v>58.54713557945765</v>
       </c>
       <c r="G13">
-        <v>92.30619036836721</v>
+        <v>93.03759799461969</v>
       </c>
       <c r="H13">
-        <v>8.0726330022752</v>
+        <v>7.770736457471116</v>
       </c>
       <c r="I13">
-        <v>3.168420907564584</v>
+        <v>2.940241783924644</v>
       </c>
       <c r="J13">
-        <v>23.07715132051928</v>
+        <v>21.41750694857063</v>
       </c>
       <c r="K13">
-        <v>19.73657323380093</v>
+        <v>17.24686872524147</v>
       </c>
       <c r="L13">
-        <v>8.533694455911748</v>
+        <v>14.1139348807318</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.60054346479087</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>8.314897430844972</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>21.01956538536927</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>19.7089872240109</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.45871425227807</v>
+        <v>13.95071112938705</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.212970669960822</v>
+        <v>6.740235084511238</v>
       </c>
       <c r="E14">
-        <v>11.4240126919703</v>
+        <v>10.9244761170047</v>
       </c>
       <c r="F14">
-        <v>57.3691010606543</v>
+        <v>56.19270044809244</v>
       </c>
       <c r="G14">
-        <v>88.64789497099534</v>
+        <v>89.2478148614432</v>
       </c>
       <c r="H14">
-        <v>8.607103601552602</v>
+        <v>8.350149223706977</v>
       </c>
       <c r="I14">
-        <v>3.180552969947198</v>
+        <v>2.950776857024855</v>
       </c>
       <c r="J14">
-        <v>22.21618242857577</v>
+        <v>20.89170004822958</v>
       </c>
       <c r="K14">
-        <v>19.65289514745</v>
+        <v>17.17840277068393</v>
       </c>
       <c r="L14">
-        <v>8.091903831612532</v>
+        <v>14.01351541608129</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>11.59218988734041</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>7.886750696747588</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>20.90303475251685</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>19.60048550297089</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.3832809350628</v>
+        <v>13.87147172683181</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.204975768881465</v>
+        <v>6.743494658250894</v>
       </c>
       <c r="E15">
-        <v>11.29734728574218</v>
+        <v>10.80283493763026</v>
       </c>
       <c r="F15">
-        <v>56.55286174579325</v>
+        <v>55.48815728223843</v>
       </c>
       <c r="G15">
-        <v>87.44203037921919</v>
+        <v>87.955024412101</v>
       </c>
       <c r="H15">
-        <v>8.717235684883761</v>
+        <v>8.473787502443036</v>
       </c>
       <c r="I15">
-        <v>3.191289070314182</v>
+        <v>2.961279093383719</v>
       </c>
       <c r="J15">
-        <v>21.93727745001044</v>
+        <v>20.79820372712128</v>
       </c>
       <c r="K15">
-        <v>19.61636156342747</v>
+        <v>17.14864440743187</v>
       </c>
       <c r="L15">
-        <v>7.978845406781857</v>
+        <v>13.96086084108375</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>11.59681730403614</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>7.780053152147623</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>20.83946207583682</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>19.54076454982583</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.00548046839704</v>
+        <v>13.46458056296864</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.038077634112515</v>
+        <v>6.629721603940994</v>
       </c>
       <c r="E16">
-        <v>11.05543647810781</v>
+        <v>10.59594340399618</v>
       </c>
       <c r="F16">
-        <v>54.85009154271341</v>
+        <v>54.29549891343846</v>
       </c>
       <c r="G16">
-        <v>84.60447147099541</v>
+        <v>84.65779174558932</v>
       </c>
       <c r="H16">
-        <v>8.310732539401775</v>
+        <v>8.095359036329135</v>
       </c>
       <c r="I16">
-        <v>3.232952879941736</v>
+        <v>2.997020048549637</v>
       </c>
       <c r="J16">
-        <v>21.31863842690874</v>
+        <v>21.04285287828785</v>
       </c>
       <c r="K16">
-        <v>19.31373552454702</v>
+        <v>16.9022939727946</v>
       </c>
       <c r="L16">
-        <v>7.853518331201916</v>
+        <v>13.60460190385727</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11.56367067056883</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>7.680871440960748</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>20.42046714942446</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>19.15146154352504</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.76658581855816</v>
+        <v>13.20718206144265</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.890994567476147</v>
+        <v>6.503442293808116</v>
       </c>
       <c r="E17">
-        <v>11.10873582994215</v>
+        <v>10.66821431359981</v>
       </c>
       <c r="F17">
-        <v>54.9521273442332</v>
+        <v>54.61470399990611</v>
       </c>
       <c r="G17">
-        <v>84.42989024679652</v>
+        <v>84.2781420282722</v>
       </c>
       <c r="H17">
-        <v>7.652876284719961</v>
+        <v>7.435652357149836</v>
       </c>
       <c r="I17">
-        <v>3.259104488955878</v>
+        <v>3.019599078598878</v>
       </c>
       <c r="J17">
-        <v>21.31571138412266</v>
+        <v>21.41110846818203</v>
       </c>
       <c r="K17">
-        <v>19.12799693385065</v>
+        <v>16.75200151722283</v>
       </c>
       <c r="L17">
-        <v>7.983629020475923</v>
+        <v>13.38738669389022</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>11.54447758545402</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>7.822573795229354</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>20.16011624078777</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>18.90990782811448</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.65328601419816</v>
+        <v>13.08022925795683</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.758068310867441</v>
+        <v>6.369895670766668</v>
       </c>
       <c r="E18">
-        <v>11.54498188092307</v>
+        <v>11.11489300289109</v>
       </c>
       <c r="F18">
-        <v>56.62949623767408</v>
+        <v>56.36909869099537</v>
       </c>
       <c r="G18">
-        <v>86.55420101420601</v>
+        <v>86.30346747300844</v>
       </c>
       <c r="H18">
-        <v>6.813776612364489</v>
+        <v>6.568404893821351</v>
       </c>
       <c r="I18">
-        <v>3.265565125593841</v>
+        <v>3.022020911339306</v>
       </c>
       <c r="J18">
-        <v>21.84404526454932</v>
+        <v>22.08638206504841</v>
       </c>
       <c r="K18">
-        <v>18.98269070578931</v>
+        <v>16.63457299273673</v>
       </c>
       <c r="L18">
-        <v>8.408802809621069</v>
+        <v>13.24088982142715</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.50837938624695</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>8.251939961373555</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>19.98799054081196</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>18.75179941896943</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.59390822762416</v>
+        <v>13.0183123162909</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.669568905450439</v>
+        <v>6.267270748805973</v>
       </c>
       <c r="E19">
-        <v>12.41337630932513</v>
+        <v>11.99052973844192</v>
       </c>
       <c r="F19">
-        <v>59.41971075806387</v>
+        <v>59.15428297819104</v>
       </c>
       <c r="G19">
-        <v>90.33508203544234</v>
+        <v>90.03653348039855</v>
       </c>
       <c r="H19">
-        <v>6.159344924407815</v>
+        <v>5.867184807924315</v>
       </c>
       <c r="I19">
-        <v>3.274500571847978</v>
+        <v>3.031118073889721</v>
       </c>
       <c r="J19">
-        <v>22.75062664998805</v>
+        <v>23.01567496273602</v>
       </c>
       <c r="K19">
-        <v>18.96313639254054</v>
+        <v>16.61901493756875</v>
       </c>
       <c r="L19">
-        <v>9.113037096256182</v>
+        <v>13.20851008762125</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>11.51584384875376</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>8.955403905586083</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>19.94584405607849</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>18.71213696243689</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.79435977111336</v>
+        <v>13.23673646660931</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.70875573128245</v>
+        <v>6.266164012264981</v>
       </c>
       <c r="E20">
-        <v>14.31405374284889</v>
+        <v>13.88979270066754</v>
       </c>
       <c r="F20">
-        <v>65.10134093068336</v>
+        <v>64.61718621760139</v>
       </c>
       <c r="G20">
-        <v>98.43318866966997</v>
+        <v>98.20936996388394</v>
       </c>
       <c r="H20">
-        <v>6.28297509503837</v>
+        <v>5.919643631030889</v>
       </c>
       <c r="I20">
-        <v>3.255602238595072</v>
+        <v>3.016315391419516</v>
       </c>
       <c r="J20">
-        <v>24.64828222076784</v>
+        <v>24.6192754625943</v>
       </c>
       <c r="K20">
-        <v>19.1447641825374</v>
+        <v>16.76551284967359</v>
       </c>
       <c r="L20">
-        <v>10.49527877753493</v>
+        <v>13.40870233908766</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>11.54449239672256</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>10.32081481955973</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>20.18630080696025</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>18.93430068504601</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.46205295727276</v>
+        <v>13.95929711500363</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.985915161552136</v>
+        <v>6.497140881949262</v>
       </c>
       <c r="E21">
-        <v>15.22891637938874</v>
+        <v>14.78861374275674</v>
       </c>
       <c r="F21">
-        <v>69.54391405210019</v>
+        <v>67.98797371294485</v>
       </c>
       <c r="G21">
-        <v>105.4282540388841</v>
+        <v>106.0648846139493</v>
       </c>
       <c r="H21">
-        <v>7.037636624092339</v>
+        <v>6.584266813133343</v>
       </c>
       <c r="I21">
-        <v>3.186301592984643</v>
+        <v>2.959115222706825</v>
       </c>
       <c r="J21">
-        <v>26.35274133423468</v>
+        <v>24.41073125292672</v>
       </c>
       <c r="K21">
-        <v>19.71918307887109</v>
+        <v>17.23287453370181</v>
       </c>
       <c r="L21">
-        <v>11.10877520090683</v>
+        <v>14.06799392747157</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.62192781803941</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>10.8718146253732</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>20.96009581783553</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>19.65205955026159</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.91058206277683</v>
+        <v>14.43787908152941</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.170827225695609</v>
+        <v>6.658302690398895</v>
       </c>
       <c r="E22">
-        <v>15.73707752937601</v>
+        <v>15.28727995563081</v>
       </c>
       <c r="F22">
-        <v>72.17892970731032</v>
+        <v>69.89103407280858</v>
       </c>
       <c r="G22">
-        <v>109.6295163460941</v>
+        <v>110.8217182855315</v>
       </c>
       <c r="H22">
-        <v>7.511906727044937</v>
+        <v>6.998340168687019</v>
       </c>
       <c r="I22">
-        <v>3.13098958715346</v>
+        <v>2.909184254043049</v>
       </c>
       <c r="J22">
-        <v>27.39563108011149</v>
+        <v>24.12505304804625</v>
       </c>
       <c r="K22">
-        <v>20.04096143671379</v>
+        <v>17.49701563299556</v>
       </c>
       <c r="L22">
-        <v>11.44417313170412</v>
+        <v>14.47013361297057</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>11.64165054041794</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>11.16441798311975</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>21.4256041694121</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>20.08677239871825</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.70666215948073</v>
+        <v>14.21459247315844</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.071736274683686</v>
+        <v>6.569691831471198</v>
       </c>
       <c r="E23">
-        <v>15.46589243627447</v>
+        <v>15.01700534368991</v>
       </c>
       <c r="F23">
-        <v>70.77746641780504</v>
+        <v>68.98428633558881</v>
       </c>
       <c r="G23">
-        <v>107.3957689936457</v>
+        <v>108.1987879590514</v>
       </c>
       <c r="H23">
-        <v>7.258380688503022</v>
+        <v>6.781138630665209</v>
       </c>
       <c r="I23">
-        <v>3.149482364065691</v>
+        <v>2.922337274159551</v>
       </c>
       <c r="J23">
-        <v>26.84109818239774</v>
+        <v>24.4644811199561</v>
       </c>
       <c r="K23">
-        <v>19.81931143575137</v>
+        <v>17.31457960359089</v>
       </c>
       <c r="L23">
-        <v>11.265362003261</v>
+        <v>14.22522920813328</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.59808694405448</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>11.01272524422011</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>21.15093689908221</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>19.83209583748971</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.83770894768115</v>
+        <v>13.27348528831441</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.703990601407009</v>
+        <v>6.260740272664887</v>
       </c>
       <c r="E24">
-        <v>14.43621713443277</v>
+        <v>14.01323395664723</v>
       </c>
       <c r="F24">
-        <v>65.35700783305954</v>
+        <v>64.87842223411123</v>
       </c>
       <c r="G24">
-        <v>98.77190545384764</v>
+        <v>98.53730038641608</v>
       </c>
       <c r="H24">
-        <v>6.304721781174255</v>
+        <v>5.940442935954898</v>
       </c>
       <c r="I24">
-        <v>3.239445799535519</v>
+        <v>2.996067168826209</v>
       </c>
       <c r="J24">
-        <v>24.73020244758283</v>
+        <v>24.71448905679104</v>
       </c>
       <c r="K24">
-        <v>19.05624324689398</v>
+        <v>16.6933766271143</v>
       </c>
       <c r="L24">
-        <v>10.58284651513448</v>
+        <v>13.35207491009226</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>11.49102066611384</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>10.40861083917814</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>20.12991125324822</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>18.88496786611795</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.80811354696444</v>
+        <v>12.15583719678393</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.316554693561287</v>
+        <v>5.945881986394887</v>
       </c>
       <c r="E25">
-        <v>13.30932352666903</v>
+        <v>12.95283813929153</v>
       </c>
       <c r="F25">
-        <v>59.24257166205835</v>
+        <v>58.9996481069693</v>
       </c>
       <c r="G25">
-        <v>89.04421273818109</v>
+        <v>88.75513181767259</v>
       </c>
       <c r="H25">
-        <v>5.277429829038457</v>
+        <v>4.981952705048134</v>
       </c>
       <c r="I25">
-        <v>3.34203145623355</v>
+        <v>3.081314497504735</v>
       </c>
       <c r="J25">
-        <v>22.5580835308097</v>
+        <v>22.82098874077338</v>
       </c>
       <c r="K25">
-        <v>18.22730289418022</v>
+        <v>16.03287778909612</v>
       </c>
       <c r="L25">
-        <v>9.830104983253845</v>
+        <v>12.43549973059518</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.38584048182826</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>9.689748874823925</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>18.98009393091337</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>17.82409407203373</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
